--- a/data/hotels_by_city/Denver/Denver_shard_252.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_252.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d5924169-Reviews-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Staybridge-Suites-Denver-Stapleton.h7340739.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1871 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r583753775-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>5924169</t>
+  </si>
+  <si>
+    <t>583753775</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Very nice property</t>
+  </si>
+  <si>
+    <t>Convenient to many eateries - within walking distance.  Room was very clean and very quiet. Plenty of well lit parking.  Room is spacious and nicely appointed.  A comfortable place for either a short or long term stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Convenient to many eateries - within walking distance.  Room was very clean and very quiet. Plenty of well lit parking.  Room is spacious and nicely appointed.  A comfortable place for either a short or long term stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r568753404-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568753404</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Great place to stay, In Denver for work a lot and have stayed at this property many times, staff is great, they have Dinner and drinks Tues thru Thurs, Place is super clean and housekeeping is always great. was there in Spring break time and the staff was handling it very well. Thanks againMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Great place to stay, In Denver for work a lot and have stayed at this property many times, staff is great, they have Dinner and drinks Tues thru Thurs, Place is super clean and housekeeping is always great. was there in Spring break time and the staff was handling it very well. Thanks againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r568740738-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568740738</t>
+  </si>
+  <si>
+    <t>Enjoyed Our Stay</t>
+  </si>
+  <si>
+    <t>We had booked this Hotel for a couple nights thinking we would stay here while visiting Downtown Denver then move to a different Hotel closer to the mountains for skiing and sight seeing the rest of the week, but found this location in Stapleton, North of Downtown to be the perfect distance from everything we had planned so we ended up staying at Staybridge the entire week.The suite had a full kitchen and separate bedroom and was very Comfortable and roomy. Great accommodations with free breakfast everyday and a dinner bar 3 nights a week. We also saved money by having meals in our room since the kitchen had everything we needed including pans, plates, and silverware. The staff was also very accommodating. Will defiantly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We had booked this Hotel for a couple nights thinking we would stay here while visiting Downtown Denver then move to a different Hotel closer to the mountains for skiing and sight seeing the rest of the week, but found this location in Stapleton, North of Downtown to be the perfect distance from everything we had planned so we ended up staying at Staybridge the entire week.The suite had a full kitchen and separate bedroom and was very Comfortable and roomy. Great accommodations with free breakfast everyday and a dinner bar 3 nights a week. We also saved money by having meals in our room since the kitchen had everything we needed including pans, plates, and silverware. The staff was also very accommodating. Will defiantly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r549958036-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549958036</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Always great!!</t>
+  </si>
+  <si>
+    <t>This has been my second time staying at this hotel and they always seem to impress! I had booked a two bedroom suite for my sister's 18th birthday party. When we checked in we were greeted by Jordan, he was friendly and professional. Along with his general manager Christian, they both really worked to make sure that we had everything that we needed and that my sister had a great time. The rooms are always nice here, comfortable beds and quiet! Breakfast is fresh and yummy, I love the mini waffle maker! This hotel has the best location by far right across the street from Northfield shopping center, where there are numerous restaurants, a movie theater and shops. I will keep returning to this hotel because they do a great job!!! :-) Thank you so much!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>This has been my second time staying at this hotel and they always seem to impress! I had booked a two bedroom suite for my sister's 18th birthday party. When we checked in we were greeted by Jordan, he was friendly and professional. Along with his general manager Christian, they both really worked to make sure that we had everything that we needed and that my sister had a great time. The rooms are always nice here, comfortable beds and quiet! Breakfast is fresh and yummy, I love the mini waffle maker! This hotel has the best location by far right across the street from Northfield shopping center, where there are numerous restaurants, a movie theater and shops. I will keep returning to this hotel because they do a great job!!! :-) Thank you so much!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r549758535-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549758535</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We stayed for several days over Christmas.  Location is very convenient for access to Denver light rail and the city.  Internet worked well, and front desk staff friendly. Room housekeeping seemed insufficient.  Would have been helpful if management let guests know when there were staffing shortages.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for several days over Christmas.  Location is very convenient for access to Denver light rail and the city.  Internet worked well, and front desk staff friendly. Room housekeeping seemed insufficient.  Would have been helpful if management let guests know when there were staffing shortages.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r536421367-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536421367</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Comfy Rooms but...</t>
+  </si>
+  <si>
+    <t>Hubby and I ended up our stay in Colorado with a few nights in Denver.  We chose Staybridge Suites for their typically nice rooms and complimentary breakfasts.  Our room was clean and comfy, but found the breakfast service lacking.  The location is rather ‘commercial’ with a busy highway in front of the building.  It is within easy walking distance of eateries and shopping centers.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Christian D, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Hubby and I ended up our stay in Colorado with a few nights in Denver.  We chose Staybridge Suites for their typically nice rooms and complimentary breakfasts.  Our room was clean and comfy, but found the breakfast service lacking.  The location is rather ‘commercial’ with a busy highway in front of the building.  It is within easy walking distance of eateries and shopping centers.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r509139165-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>509139165</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Lots of room for family, clean hotel</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights while in Denver. Good location with lots of places to eat across the street. We had a 2 bedroom suite that was plenty of room for our family of 5.When I booked the reservation, they told me pets were kept to certain floors. I'm highly allergic. Our suite was fine and didn't bother me but there was a dog a few doors down that barked constantly.Hotel was clean. Only light cleaning service offered M-F, none on weekends. This was fine for our stay. The light cleaning includes emptying trash and switching out towels. For longer stays, there is a weekly heavier cleaning.Breakfast buffet was ok. Eggs and sandwich meat and cheese were available. Everything else was carbs. Fruit was fresh. Staff was helpful and friendly. The wildlife refuge nearby is an interesting and free place to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>William G, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights while in Denver. Good location with lots of places to eat across the street. We had a 2 bedroom suite that was plenty of room for our family of 5.When I booked the reservation, they told me pets were kept to certain floors. I'm highly allergic. Our suite was fine and didn't bother me but there was a dog a few doors down that barked constantly.Hotel was clean. Only light cleaning service offered M-F, none on weekends. This was fine for our stay. The light cleaning includes emptying trash and switching out towels. For longer stays, there is a weekly heavier cleaning.Breakfast buffet was ok. Eggs and sandwich meat and cheese were available. Everything else was carbs. Fruit was fresh. Staff was helpful and friendly. The wildlife refuge nearby is an interesting and free place to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r500074795-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>500074795</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>nice hotel, good service</t>
+  </si>
+  <si>
+    <t>the rooms were well done, comfortable.  breakfast service was nice but nothing unique.  the hotel was pretty crowded so breakfast was very busy and some of the food items were gone.  the hotel is directly across from a very nice retail center.  lots of shops, some restaurants, theater.  not too far off the interstate and midway between downtown denver and the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>William G, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>the rooms were well done, comfortable.  breakfast service was nice but nothing unique.  the hotel was pretty crowded so breakfast was very busy and some of the food items were gone.  the hotel is directly across from a very nice retail center.  lots of shops, some restaurants, theater.  not too far off the interstate and midway between downtown denver and the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r495666012-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>495666012</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in a great location.  It's close to the Shops at Northfield which has ample restaurant choices and entertainment for families.  The rooms are nice and there is an indoor pool, free laundry, a nice exercise room, and they serve complimentary breakfast and have "socials" in the evening where you can grab food and drinks on the hotel.  However, check-in was not very smooth.  We stayed Tuesday-Friday.  Even though I called prior to arrival and was assured we could check in early, we actually didn't get a room until 30-45 minutes AFTER the 3 PM check-in time.  (On our third attempt at checking in that day.)  That was disappointing, especially as I was travelling with a small child who had boarded a plane at 4:15 that morning and was worn out and needed a place to nap.  Also disappointing that we only got housekeeping service one night we were there, and the dishwasher in our suite was broken.  Prices were also very high for what you get.  All in all, very nice hotel and I would probably stay again, but I hope they work on their housekeeping issues as that seems to slow down the entire hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>William G, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in a great location.  It's close to the Shops at Northfield which has ample restaurant choices and entertainment for families.  The rooms are nice and there is an indoor pool, free laundry, a nice exercise room, and they serve complimentary breakfast and have "socials" in the evening where you can grab food and drinks on the hotel.  However, check-in was not very smooth.  We stayed Tuesday-Friday.  Even though I called prior to arrival and was assured we could check in early, we actually didn't get a room until 30-45 minutes AFTER the 3 PM check-in time.  (On our third attempt at checking in that day.)  That was disappointing, especially as I was travelling with a small child who had boarded a plane at 4:15 that morning and was worn out and needed a place to nap.  Also disappointing that we only got housekeeping service one night we were there, and the dishwasher in our suite was broken.  Prices were also very high for what you get.  All in all, very nice hotel and I would probably stay again, but I hope they work on their housekeeping issues as that seems to slow down the entire hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r485777287-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>485777287</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Great Saturday Stay</t>
+  </si>
+  <si>
+    <t>Staff couldn't have been nicer, location is great. Walked to the Shops at Northbridge (?), open air mall with lots of eateries. This reservation had been moved from an earlier date (illness, too late to cancel) and the new rate was much higher. After inquiring about it at check-in, got the same original good deal. Breakfast offerings were ample and the area clean.The only downside was some hair on the shower wall, not ours. Easily avoided, but surprising in the this very clean place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>William G, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2017</t>
+  </si>
+  <si>
+    <t>Staff couldn't have been nicer, location is great. Walked to the Shops at Northbridge (?), open air mall with lots of eateries. This reservation had been moved from an earlier date (illness, too late to cancel) and the new rate was much higher. After inquiring about it at check-in, got the same original good deal. Breakfast offerings were ample and the area clean.The only downside was some hair on the shower wall, not ours. Easily avoided, but surprising in the this very clean place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r470720718-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>470720718</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>EXCEPTIONAL</t>
+  </si>
+  <si>
+    <t>I was completely skeptical of this name and area from the internet. As I got here I realized I was wrong it Staybridge is in a perfect location next to target. The customer service is exceptional! Heather moved from being in the cleaning service to Hospitality, she truly is amazing and make sure to watch for her. Heather truly cares and will do anything to ensure your stay is spectacular. I definitely recommend this to anyone. The price ant be beat for the service you will receive. ENJOY!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>William G, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>I was completely skeptical of this name and area from the internet. As I got here I realized I was wrong it Staybridge is in a perfect location next to target. The customer service is exceptional! Heather moved from being in the cleaning service to Hospitality, she truly is amazing and make sure to watch for her. Heather truly cares and will do anything to ensure your stay is spectacular. I definitely recommend this to anyone. The price ant be beat for the service you will receive. ENJOY!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r470080387-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>470080387</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This was my second stay at this location for work and I'll be back if I'm sent to Denver.  It's very close to anything you need and the staff was super friendly.  The socials on Mon, Tue, Wed are great fun.  Go see Heather on Monday &amp; Tuesday nights.  She's fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>William G, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>This was my second stay at this location for work and I'll be back if I'm sent to Denver.  It's very close to anything you need and the staff was super friendly.  The socials on Mon, Tue, Wed are great fun.  Go see Heather on Monday &amp; Tuesday nights.  She's fantastic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r460048354-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>460048354</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Nice place for business stay</t>
+  </si>
+  <si>
+    <t>Stayed here while working in Denver. Was nice place and within walking distance to lots of places to do things in off time. Walked to restaurants and shops within minutes. Very nice staff and made sure I was happy the whole stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here while working in Denver. Was nice place and within walking distance to lots of places to do things in off time. Walked to restaurants and shops within minutes. Very nice staff and made sure I was happy the whole stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r457032536-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>457032536</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>Perfect ! ; )</t>
+  </si>
+  <si>
+    <t>We have been comming here for approx. 3 years, this stay has been thee best !!  The Staff is Great !!!, Melissa gave us the opportunity to write and review bless Her Heart!TERRY,  Matt, Natasha, All Staff is Perfect, Sweet &amp; Wonderful !!!!!!! ; )Food and Amenities are a nice pleasure ...A Special note, as House Keeping is also Perfect !, no Hotel could run without Them !,BE KIND AND RESPECTFUL, THEY DESERVE WELL EARNED TIPS also;););););) !!Love StayBridge Denver Stapleton on Northfield!We are Lucky to be World Travellers, really know what We 're talking about,Sincerely. ...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>We have been comming here for approx. 3 years, this stay has been thee best !!  The Staff is Great !!!, Melissa gave us the opportunity to write and review bless Her Heart!TERRY,  Matt, Natasha, All Staff is Perfect, Sweet &amp; Wonderful !!!!!!! ; )Food and Amenities are a nice pleasure ...A Special note, as House Keeping is also Perfect !, no Hotel could run without Them !,BE KIND AND RESPECTFUL, THEY DESERVE WELL EARNED TIPS also;););););) !!Love StayBridge Denver Stapleton on Northfield!We are Lucky to be World Travellers, really know what We 're talking about,Sincerely. ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r445073657-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>445073657</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Great cutomer service</t>
+  </si>
+  <si>
+    <t>My son and I checked in sat night only to find out I messed up our reservation and had us there the wrong night. Claire at the front desk fixed the problem upgraded our room to a 2 bedroom suite, made sure we knew where the restaurant was that I was going to, and made sure my son knew all about the activities around us. In this day and age customer service is what sets us apart and I received top notch customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>My son and I checked in sat night only to find out I messed up our reservation and had us there the wrong night. Claire at the front desk fixed the problem upgraded our room to a 2 bedroom suite, made sure we knew where the restaurant was that I was going to, and made sure my son knew all about the activities around us. In this day and age customer service is what sets us apart and I received top notch customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r442044912-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>442044912</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Great for one night, terrible for an extended stay</t>
+  </si>
+  <si>
+    <t>We are in the middle of a very long stay (we've been here four weeks so far). The hotel itself seems fairly new, but the front desk staff is quite rude and is never at the desk. If you need something, you have to stand in front of the desk for at least five minutes before someone emerges from the back office. The room cleaning service is terrible. I inquired about someone coming at a set time each day since I work remotely and am often in the room. I was told that the rooms that need to be flipped are cleaned first (which is completely understandable) but that nothing could be done to accommodate me. I was under the impression that my inquiry was very inconvenient for the front desk staff and that I was wasting their time. Since we are doing an extended stay, our room is cleaned once per week (floors, counters, bathroom, new linens), and there is a light touch service (new towels, toiletries, trash removal) provided each weekday. For the first three weeks of our stay, we did not receive new linens or have any surface actually cleaned, even though we inquired about it. The hot breakfast that is provided each day is your typical hotel breakfast, but the dining area is always a mess and the staff is very slow to replenish any food or coffee. There aren't enough staff members assigned to that...We are in the middle of a very long stay (we've been here four weeks so far). The hotel itself seems fairly new, but the front desk staff is quite rude and is never at the desk. If you need something, you have to stand in front of the desk for at least five minutes before someone emerges from the back office. The room cleaning service is terrible. I inquired about someone coming at a set time each day since I work remotely and am often in the room. I was told that the rooms that need to be flipped are cleaned first (which is completely understandable) but that nothing could be done to accommodate me. I was under the impression that my inquiry was very inconvenient for the front desk staff and that I was wasting their time. Since we are doing an extended stay, our room is cleaned once per week (floors, counters, bathroom, new linens), and there is a light touch service (new towels, toiletries, trash removal) provided each weekday. For the first three weeks of our stay, we did not receive new linens or have any surface actually cleaned, even though we inquired about it. The hot breakfast that is provided each day is your typical hotel breakfast, but the dining area is always a mess and the staff is very slow to replenish any food or coffee. There aren't enough staff members assigned to that area to keep up with the breakfast rush. The complimentary coffee and hot water is almost always empty during the day or in the evening. The gym facilities have great equipment, but the room is not attended to. There are never any water cups, there are often used towels lying around the room, and there was honey smeared all over the treadmill. They only just recently replenished the sanitary wipes to wipe off the equipment after use. The staff overall is subpar (there are two people I have met who are actually friendly and do a great job)- no one is very friendly, and management tends to loiter in the lobby and appear to gossip about other staff - they actually watched a delivery man wait at the front desk for someone to come out from the back office to accept a package, instead of assisting him theirselves. I went to grab coffee one afternoon, and a catered lunch was set out for a group utilizing the conference room space. While I got what little coffee was left, one of the assistant managers? stood and watched me to make sure I did not touch the food, but never said hello or asked me about my day/stay. We are completely underwhelmed with our experience and are looking into other options to finish out our stay in the Denver area. I would recommend staying here for one or two nights, but definitely not for any extended period of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>We are in the middle of a very long stay (we've been here four weeks so far). The hotel itself seems fairly new, but the front desk staff is quite rude and is never at the desk. If you need something, you have to stand in front of the desk for at least five minutes before someone emerges from the back office. The room cleaning service is terrible. I inquired about someone coming at a set time each day since I work remotely and am often in the room. I was told that the rooms that need to be flipped are cleaned first (which is completely understandable) but that nothing could be done to accommodate me. I was under the impression that my inquiry was very inconvenient for the front desk staff and that I was wasting their time. Since we are doing an extended stay, our room is cleaned once per week (floors, counters, bathroom, new linens), and there is a light touch service (new towels, toiletries, trash removal) provided each weekday. For the first three weeks of our stay, we did not receive new linens or have any surface actually cleaned, even though we inquired about it. The hot breakfast that is provided each day is your typical hotel breakfast, but the dining area is always a mess and the staff is very slow to replenish any food or coffee. There aren't enough staff members assigned to that...We are in the middle of a very long stay (we've been here four weeks so far). The hotel itself seems fairly new, but the front desk staff is quite rude and is never at the desk. If you need something, you have to stand in front of the desk for at least five minutes before someone emerges from the back office. The room cleaning service is terrible. I inquired about someone coming at a set time each day since I work remotely and am often in the room. I was told that the rooms that need to be flipped are cleaned first (which is completely understandable) but that nothing could be done to accommodate me. I was under the impression that my inquiry was very inconvenient for the front desk staff and that I was wasting their time. Since we are doing an extended stay, our room is cleaned once per week (floors, counters, bathroom, new linens), and there is a light touch service (new towels, toiletries, trash removal) provided each weekday. For the first three weeks of our stay, we did not receive new linens or have any surface actually cleaned, even though we inquired about it. The hot breakfast that is provided each day is your typical hotel breakfast, but the dining area is always a mess and the staff is very slow to replenish any food or coffee. There aren't enough staff members assigned to that area to keep up with the breakfast rush. The complimentary coffee and hot water is almost always empty during the day or in the evening. The gym facilities have great equipment, but the room is not attended to. There are never any water cups, there are often used towels lying around the room, and there was honey smeared all over the treadmill. They only just recently replenished the sanitary wipes to wipe off the equipment after use. The staff overall is subpar (there are two people I have met who are actually friendly and do a great job)- no one is very friendly, and management tends to loiter in the lobby and appear to gossip about other staff - they actually watched a delivery man wait at the front desk for someone to come out from the back office to accept a package, instead of assisting him theirselves. I went to grab coffee one afternoon, and a catered lunch was set out for a group utilizing the conference room space. While I got what little coffee was left, one of the assistant managers? stood and watched me to make sure I did not touch the food, but never said hello or asked me about my day/stay. We are completely underwhelmed with our experience and are looking into other options to finish out our stay in the Denver area. I would recommend staying here for one or two nights, but definitely not for any extended period of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r436806692-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>436806692</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>We had a pleasant three night stay here. Room was clean &amp; spacious. Looks new. Located near our destination. On main road. Only drawback was we were never told you have to request room to be made up on weekends. Had to request clean towels Saturday night, which front desk clerk was very accommodating to get. Otherwise would definitely be a five star rating. We will come back here several times a year. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>We had a pleasant three night stay here. Room was clean &amp; spacious. Looks new. Located near our destination. On main road. Only drawback was we were never told you have to request room to be made up on weekends. Had to request clean towels Saturday night, which front desk clerk was very accommodating to get. Otherwise would definitely be a five star rating. We will come back here several times a year. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r433684107-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>433684107</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Had a great stay. Very nice room and comfortable bed. Kitchen in room was well stocked. Breakfast was quite good with a variety of items. The staff were helpful and nice, letting me check out late when I left. Lots of eating choices nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Had a great stay. Very nice room and comfortable bed. Kitchen in room was well stocked. Breakfast was quite good with a variety of items. The staff were helpful and nice, letting me check out late when I left. Lots of eating choices nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r423296670-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>423296670</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>A little disappointed!</t>
+  </si>
+  <si>
+    <t>Having stayed at this Hotel in November last year, I was disappointed in how things had changed.  There has been management changes and seems a lot of loose ends.  But you can't beat the location, free breakfast everyday, free evening happy hours on Monday-Wednesday that have meal foods available with beer and wine.  The staff is trying to get itself pulled together but could see the struggles by rooms not being cleaned when expected and sometimes running out of necessary foods for the meals.  They'll be back, I'm sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Aimee C, Front Office Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Having stayed at this Hotel in November last year, I was disappointed in how things had changed.  There has been management changes and seems a lot of loose ends.  But you can't beat the location, free breakfast everyday, free evening happy hours on Monday-Wednesday that have meal foods available with beer and wine.  The staff is trying to get itself pulled together but could see the struggles by rooms not being cleaned when expected and sometimes running out of necessary foods for the meals.  They'll be back, I'm sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r419848213-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>419848213</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Conveniently Located, Staybridge Suites Denver Stapleton</t>
+  </si>
+  <si>
+    <t>Stayed over the weekend. It is right of major roads and Highways, so easy to get anywhere. Also, right across from shopping, restaurants, entertainment, etc. Staff was friendly, and the breakfast good. Room was comfortable, and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Stayed over the weekend. It is right of major roads and Highways, so easy to get anywhere. Also, right across from shopping, restaurants, entertainment, etc. Staff was friendly, and the breakfast good. Room was comfortable, and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r410822858-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>410822858</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Cozy place to stay...</t>
+  </si>
+  <si>
+    <t>... during your stay in Denver.Spacious room, comfortable bed, clean, kitchen-corner together with working appliances and friendly staff made us feel like at home. Hotel is located in quiet location which is for us as a couple as an advantage.The only thing I would complain a bit was breakfast but at the same time I admit that it was quite regular in US. So no complains MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2016</t>
+  </si>
+  <si>
+    <t>... during your stay in Denver.Spacious room, comfortable bed, clean, kitchen-corner together with working appliances and friendly staff made us feel like at home. Hotel is located in quiet location which is for us as a couple as an advantage.The only thing I would complain a bit was breakfast but at the same time I admit that it was quite regular in US. So no complains More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r404634194-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>404634194</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>as you already know , I do travel heavily.but I can assure you that this Hotel under the Leadership of Mr Bill Weeman is incredible, staff run like military clock, the service is always second to none.but the most amazing issue here is the customer service that Mr Bill and Andrea give to their customers. by the way the Hotel awesome , the facilities they got the extra to make your stay great.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>as you already know , I do travel heavily.but I can assure you that this Hotel under the Leadership of Mr Bill Weeman is incredible, staff run like military clock, the service is always second to none.but the most amazing issue here is the customer service that Mr Bill and Andrea give to their customers. by the way the Hotel awesome , the facilities they got the extra to make your stay great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r401501153-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>401501153</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>It felt like home!</t>
+  </si>
+  <si>
+    <t>By far, the best hotel we have stayed at on our 32 day road trip! Terry at the front desk when we checked in personally brought me the 2 extra pillows I requested, within 5 minutes of when we got into our room!Our maid, Charmaine, was the HIGHLIGHT OF OUR STAY! She meticulously cleaned our room and was wonderfully warm, friendly, and had a great sense of humor. I gave her a big hug of "thanks" upon leaving because she made us feel so very much at home here!Social Hour was outstanding -- great food, beer, and wine! Maureen was terrific at serving the beer and wine; very congenial and professional!Breakfast was incredible; by far the best of any hotels we have stayed in, over our many years of travel.Room was huge, beautiful, well maintained, and clean! Hot tub and pool were beautiful and very clean.We will definitely stay here again!Thanks to all of the staff for a wonderful 4 day stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>By far, the best hotel we have stayed at on our 32 day road trip! Terry at the front desk when we checked in personally brought me the 2 extra pillows I requested, within 5 minutes of when we got into our room!Our maid, Charmaine, was the HIGHLIGHT OF OUR STAY! She meticulously cleaned our room and was wonderfully warm, friendly, and had a great sense of humor. I gave her a big hug of "thanks" upon leaving because she made us feel so very much at home here!Social Hour was outstanding -- great food, beer, and wine! Maureen was terrific at serving the beer and wine; very congenial and professional!Breakfast was incredible; by far the best of any hotels we have stayed in, over our many years of travel.Room was huge, beautiful, well maintained, and clean! Hot tub and pool were beautiful and very clean.We will definitely stay here again!Thanks to all of the staff for a wonderful 4 day stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r400823651-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>400823651</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>What a find!</t>
+  </si>
+  <si>
+    <t>We just loved this hotel. We selected it for its location--near the airport, and a few blocks' walk from our relatives--but found it to be a delight. The suites are spacious, clean,and well-appointed (dishes, cutlery and glassware for 4, with a fridge, range and a couple of pots and pans) with great floor plans. There's a lovely patio with comfortable seating, and a modest indoor pool. There's a 24-hour-pantry on site (super-convenient if you want a coke, glass of wine, or even a frozen pizza) along with a generous breakfast buffet and regular Happy Hours. Staff is very friendly, as are other guests. We didn't shop, but it is also near fast-casual restaurants, Target and a major shopping center with a movie theater. We'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>We just loved this hotel. We selected it for its location--near the airport, and a few blocks' walk from our relatives--but found it to be a delight. The suites are spacious, clean,and well-appointed (dishes, cutlery and glassware for 4, with a fridge, range and a couple of pots and pans) with great floor plans. There's a lovely patio with comfortable seating, and a modest indoor pool. There's a 24-hour-pantry on site (super-convenient if you want a coke, glass of wine, or even a frozen pizza) along with a generous breakfast buffet and regular Happy Hours. Staff is very friendly, as are other guests. We didn't shop, but it is also near fast-casual restaurants, Target and a major shopping center with a movie theater. We'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r392660487-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>392660487</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Our new "Go to" place to stay in Denver</t>
+  </si>
+  <si>
+    <t>From the moment Esther greeted us at the front desk to the time she smiled and said good-bye, our stay was perfect. Friendly staff all around and a beautiful, new hotel that is impeccably kept. An excellent breakfast, dining tables kept clean and friendly words from the woman who kept it all going. All the staff, including Assistant GM Chase, are definitely at home in the hospitality industry. As an added plus, the hotel is a short walk to shopping, dining and entertainment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>From the moment Esther greeted us at the front desk to the time she smiled and said good-bye, our stay was perfect. Friendly staff all around and a beautiful, new hotel that is impeccably kept. An excellent breakfast, dining tables kept clean and friendly words from the woman who kept it all going. All the staff, including Assistant GM Chase, are definitely at home in the hospitality industry. As an added plus, the hotel is a short walk to shopping, dining and entertainment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r391483199-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>391483199</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Clean suite!</t>
+  </si>
+  <si>
+    <t>In the middle of beautiful Stapleton! Close to shopping, restaurants and much more! Quiet area....safe. loved the free laundry room which I did end up using once...pool/hot tub...little store inside to buy things like drinks, candy, and ice cream!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>In the middle of beautiful Stapleton! Close to shopping, restaurants and much more! Quiet area....safe. loved the free laundry room which I did end up using once...pool/hot tub...little store inside to buy things like drinks, candy, and ice cream!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r391045327-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>391045327</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Outstanding hotel in Denver</t>
+  </si>
+  <si>
+    <t>We stay at a lot of hotels, and when driving through a city on a very long road trip, you definitely want a gem like this!The location was easy to get to, and was located close to the highway which was a huge plus, as we were travelling with a u-haul in tow.  The hotel is right across the street from several dining and shopping options, so was a great location.  The only downside was the parking.  Being so close to the highway, we were a bit disappointed in the lack of parking accessible for trailers. The front desk staff was the only issue we had.  The girl who checked us in was not very knowledgeable, and sent us on a goose chase to find the elevators to get to our room.  She also suggested we 'just park on the street' with our trailer.  The girl beside her at the desk was able to check in 3 other people in the time it took ours to do our check in - odd considering we had already paid for the room in advance.The room was fantastic - large, modern, clean and open, with lots of room to move around and relax in.  There was a small kitchenette as well.  The bed was comfy.We will definitely be staying here when we are back in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>We stay at a lot of hotels, and when driving through a city on a very long road trip, you definitely want a gem like this!The location was easy to get to, and was located close to the highway which was a huge plus, as we were travelling with a u-haul in tow.  The hotel is right across the street from several dining and shopping options, so was a great location.  The only downside was the parking.  Being so close to the highway, we were a bit disappointed in the lack of parking accessible for trailers. The front desk staff was the only issue we had.  The girl who checked us in was not very knowledgeable, and sent us on a goose chase to find the elevators to get to our room.  She also suggested we 'just park on the street' with our trailer.  The girl beside her at the desk was able to check in 3 other people in the time it took ours to do our check in - odd considering we had already paid for the room in advance.The room was fantastic - large, modern, clean and open, with lots of room to move around and relax in.  There was a small kitchenette as well.  The bed was comfy.We will definitely be staying here when we are back in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r384934589-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>384934589</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel and Staff!</t>
+  </si>
+  <si>
+    <t>I couldn't have been more pleased with my stay last month at this location.  The Staybridge brand is a favorite of mine but this location in particular surpassed my expectations in every way.  The local staff is among the most friendly and attentive team I've ever experienced.  The hotel is new, clean, near great amenities and their food is very good.  Based on my first stay there, it will be the only place I stay when traveling to Denver.  This is also the first time I've ever been compelled to provide feedback but they truly deserve this extra effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>I couldn't have been more pleased with my stay last month at this location.  The Staybridge brand is a favorite of mine but this location in particular surpassed my expectations in every way.  The local staff is among the most friendly and attentive team I've ever experienced.  The hotel is new, clean, near great amenities and their food is very good.  Based on my first stay there, it will be the only place I stay when traveling to Denver.  This is also the first time I've ever been compelled to provide feedback but they truly deserve this extra effort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r384321875-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>384321875</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Less than satisfactory business trip</t>
+  </si>
+  <si>
+    <t>I stayed at this location on my second visit and was less than please with my visit.  I stayed for four nights and only one day did housekeeping clean my room.  I had to call on two separate occasions after getting back to my hotel at 4:30pm after work only to find my room never touched.  Also, one day the free breakfast was not even set up at 6:30am and the employees seemed to be scrambling trying to figure it out.  Very disorganized and disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this location on my second visit and was less than please with my visit.  I stayed for four nights and only one day did housekeeping clean my room.  I had to call on two separate occasions after getting back to my hotel at 4:30pm after work only to find my room never touched.  Also, one day the free breakfast was not even set up at 6:30am and the employees seemed to be scrambling trying to figure it out.  Very disorganized and disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r378810301-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>378810301</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Really great place to stay. Free breakfast, rooms are suites with small kitchen. Free laundry facilities. Fitness room. In a nice part of Denver with plenty of shopping and restaurants around. Downtown is about a 20 minute $15 uber ride.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Really great place to stay. Free breakfast, rooms are suites with small kitchen. Free laundry facilities. Fitness room. In a nice part of Denver with plenty of shopping and restaurants around. Downtown is about a 20 minute $15 uber ride.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r367422576-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>367422576</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Opulent</t>
+  </si>
+  <si>
+    <t>Great stay. The staff were very friendly. I forgot the gentlemans name at the front desk, but he helped upgrade our room to a larger room with minimal effort. Wonderful area!! Safe!!! New homes being built around the area but doesn't interfere with sound or congestion. You can view the mountains from the front entrance . Shopping and food is within walking distance.I would have given a 5 rating but they withdrew $200 from my account. The manager did  appologize but it did tie the extra $100 up for a couple of days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Great stay. The staff were very friendly. I forgot the gentlemans name at the front desk, but he helped upgrade our room to a larger room with minimal effort. Wonderful area!! Safe!!! New homes being built around the area but doesn't interfere with sound or congestion. You can view the mountains from the front entrance . Shopping and food is within walking distance.I would have given a 5 rating but they withdrew $200 from my account. The manager did  appologize but it did tie the extra $100 up for a couple of days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r366568002-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>366568002</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Hobo Terp</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find and in a nice location . The staff was friendly and professional . Check was smooth and easy.  The hotel and rooms are a little outdated, but very clean . They have a very nice happy hour .MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find and in a nice location . The staff was friendly and professional . Check was smooth and easy.  The hotel and rooms are a little outdated, but very clean . They have a very nice happy hour .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r366463733-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>366463733</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Rooms</t>
+  </si>
+  <si>
+    <t>After a long flight from the uk, the hotel was a ten min taxi ride from the airport. It was clean and well located. The beds are really comfortable and the facilities are ideal for a short stay. The location is good, Central with plenty of shops and restauraunts within walking distance. I would recommend for and business traveler or anyone needing a short stay with easy access to the airport or Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill W, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>After a long flight from the uk, the hotel was a ten min taxi ride from the airport. It was clean and well located. The beds are really comfortable and the facilities are ideal for a short stay. The location is good, Central with plenty of shops and restauraunts within walking distance. I would recommend for and business traveler or anyone needing a short stay with easy access to the airport or Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r358060742-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>358060742</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Reliable, fast and courteous. If you need help for anything be sure to ask for Tiffany, Amy or Sawyer. These people in particular, will go out of their way to make your stay as comfortable as possible.Thanks gang,Lorenzo BankstonMoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Reliable, fast and courteous. If you need help for anything be sure to ask for Tiffany, Amy or Sawyer. These people in particular, will go out of their way to make your stay as comfortable as possible.Thanks gang,Lorenzo BankstonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r355432317-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>355432317</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Immediate response to your requests</t>
+  </si>
+  <si>
+    <t>I shared room 438 for 3  nights. I also was in a room with 1 king. The king was especially nice, with a firm mattress full size frig and micro. A new facility, it is clean, attractive with a lot of light fixtures.  Tiffany was at the desk - always responsive to our many questions and requests. She anticipated our needs.  She is excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>I shared room 438 for 3  nights. I also was in a room with 1 king. The king was especially nice, with a firm mattress full size frig and micro. A new facility, it is clean, attractive with a lot of light fixtures.  Tiffany was at the desk - always responsive to our many questions and requests. She anticipated our needs.  She is excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r354854290-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>354854290</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Expected better</t>
+  </si>
+  <si>
+    <t>This was our third visit to this property, and for previous visits I emailed Michelle at the front desk ahead of making a reservation to get the rates and availability under the National Jewish Hospital rate, and Michelle always went out of her way to be helpful and get us the best rate and make things on our end as easy as possible. This time when I emailed as I had previously my emails were ignored. Three times I got no response. Finally after my fourth email I got a very short, very curt reply explaining that they could not help me and I needed to just reserve online - even though the National Jewish rate is not available online. Because this is our preferred hotel in our preferred area I made a reservation online and requested the National Jewish rate in the notes. Normally a few days before our arrival I get a confirmation email, but did not this time so I had to call to confirm our reservation - and the gentleman who answered was not remotely helpful or friendly, but did confirm our reservation. After a very long drive we arrived at the hotel at 2pm on Thursday the 10th. The woman behind the counter, Jasmine I think, informed us there were no rooms available and we had to come back later, but the first room that came available she would lock in for us. So we...This was our third visit to this property, and for previous visits I emailed Michelle at the front desk ahead of making a reservation to get the rates and availability under the National Jewish Hospital rate, and Michelle always went out of her way to be helpful and get us the best rate and make things on our end as easy as possible. This time when I emailed as I had previously my emails were ignored. Three times I got no response. Finally after my fourth email I got a very short, very curt reply explaining that they could not help me and I needed to just reserve online - even though the National Jewish rate is not available online. Because this is our preferred hotel in our preferred area I made a reservation online and requested the National Jewish rate in the notes. Normally a few days before our arrival I get a confirmation email, but did not this time so I had to call to confirm our reservation - and the gentleman who answered was not remotely helpful or friendly, but did confirm our reservation. After a very long drive we arrived at the hotel at 2pm on Thursday the 10th. The woman behind the counter, Jasmine I think, informed us there were no rooms available and we had to come back later, but the first room that came available she would lock in for us. So we went to lunch and returned at 4pm. She had not locked in the first available room and asked us if we wanted 2nd or 3rd floor. We said whatever is easiest and were assigned room 326. I asked about our National Jewish Hospital rate and she said none existed, and not wanting to argue we just left for our room. The room was clean and comfortable. We had requested a fan placed in our room but when none was present called the desk and they told us the stock show visitors stole them all. During the night there was a lot of banging, thumping and noise from the room above us. The next morning we visited the lackluster breakfast but ended up going across the street to Starbucks for better food and coffee. When we wanted to check out we visited the front desk and a woman was on the phone in the back room and never came out to help us. After a few minutes we gave up and left. I've emailed asking for a copy of our bill but so far none has arrived. After the excellent previous two stays I am surprised by what a different experience this visit was, from the trying to reserve the room all the way to checking out. Unfortunately based on this third stay there probably won't be a fourth stay when we return for more National Jewish Hospital appointments in June.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>This was our third visit to this property, and for previous visits I emailed Michelle at the front desk ahead of making a reservation to get the rates and availability under the National Jewish Hospital rate, and Michelle always went out of her way to be helpful and get us the best rate and make things on our end as easy as possible. This time when I emailed as I had previously my emails were ignored. Three times I got no response. Finally after my fourth email I got a very short, very curt reply explaining that they could not help me and I needed to just reserve online - even though the National Jewish rate is not available online. Because this is our preferred hotel in our preferred area I made a reservation online and requested the National Jewish rate in the notes. Normally a few days before our arrival I get a confirmation email, but did not this time so I had to call to confirm our reservation - and the gentleman who answered was not remotely helpful or friendly, but did confirm our reservation. After a very long drive we arrived at the hotel at 2pm on Thursday the 10th. The woman behind the counter, Jasmine I think, informed us there were no rooms available and we had to come back later, but the first room that came available she would lock in for us. So we...This was our third visit to this property, and for previous visits I emailed Michelle at the front desk ahead of making a reservation to get the rates and availability under the National Jewish Hospital rate, and Michelle always went out of her way to be helpful and get us the best rate and make things on our end as easy as possible. This time when I emailed as I had previously my emails were ignored. Three times I got no response. Finally after my fourth email I got a very short, very curt reply explaining that they could not help me and I needed to just reserve online - even though the National Jewish rate is not available online. Because this is our preferred hotel in our preferred area I made a reservation online and requested the National Jewish rate in the notes. Normally a few days before our arrival I get a confirmation email, but did not this time so I had to call to confirm our reservation - and the gentleman who answered was not remotely helpful or friendly, but did confirm our reservation. After a very long drive we arrived at the hotel at 2pm on Thursday the 10th. The woman behind the counter, Jasmine I think, informed us there were no rooms available and we had to come back later, but the first room that came available she would lock in for us. So we went to lunch and returned at 4pm. She had not locked in the first available room and asked us if we wanted 2nd or 3rd floor. We said whatever is easiest and were assigned room 326. I asked about our National Jewish Hospital rate and she said none existed, and not wanting to argue we just left for our room. The room was clean and comfortable. We had requested a fan placed in our room but when none was present called the desk and they told us the stock show visitors stole them all. During the night there was a lot of banging, thumping and noise from the room above us. The next morning we visited the lackluster breakfast but ended up going across the street to Starbucks for better food and coffee. When we wanted to check out we visited the front desk and a woman was on the phone in the back room and never came out to help us. After a few minutes we gave up and left. I've emailed asking for a copy of our bill but so far none has arrived. After the excellent previous two stays I am surprised by what a different experience this visit was, from the trying to reserve the room all the way to checking out. Unfortunately based on this third stay there probably won't be a fourth stay when we return for more National Jewish Hospital appointments in June.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r348648915-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>348648915</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Very nice hotel conveniently  located. Great staff and nice rooms. Wish they had managers nightly reception on weekends. Nice to have juice, coffee and sofa available at breakfast.  We travel with pets and it was not a problemSome traffic noise was notedMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Tharaldson, Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel conveniently  located. Great staff and nice rooms. Wish they had managers nightly reception on weekends. Nice to have juice, coffee and sofa available at breakfast.  We travel with pets and it was not a problemSome traffic noise was notedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r347463211-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>347463211</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Amazing ALL AROUND💯</t>
+  </si>
+  <si>
+    <t>I'm a truck driver came in w my wife and the staff got me parking and were super helpful all around, everything is new and super clean there's a huge shopping mall right across the street w movie theater and restaurants galore! We definitely loved it and would come back!LVLMoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2016</t>
+  </si>
+  <si>
+    <t>I'm a truck driver came in w my wife and the staff got me parking and were super helpful all around, everything is new and super clean there's a huge shopping mall right across the street w movie theater and restaurants galore! We definitely loved it and would come back!LVLMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r346436711-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>346436711</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Super Great Location</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip. Great location, across from a mall with just about everything you could ever need within walking distance...Restaurants, Shopping, Gas, Party store (7-11) coffee shops etc...Relatively new development, clean and safe. Not too far from downtown (30 minutes) and the airport (25 minutes)MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip. Great location, across from a mall with just about everything you could ever need within walking distance...Restaurants, Shopping, Gas, Party store (7-11) coffee shops etc...Relatively new development, clean and safe. Not too far from downtown (30 minutes) and the airport (25 minutes)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r334821658-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>334821658</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Does not live up to previous stays at another Staybridge Suites</t>
+  </si>
+  <si>
+    <t>On previous visits to Denver, we have stayed in the Staybridge Suites in the Cherry Creek area of Denver and have always been pleased with our experiences there. My son moved, and the Stapleton Suites was closer to their new house, so we stayed here. The very first thing we noticed was how sterile and unwelcoming the lobby was! Unlike the other Staybridge Suites, there were virtually NO holiday decorations - - or ANY homey touches. The fireplace has never been working to provide a warm,  cheery greeting. Nor was there any hot chocolate or hot cider, or even cookies to welcome guests. Half of the time, there is no one even at the front desk.
+When we got to our room, we were overwhelmed with the HEAT (77 degrees F!) We could not get the thermostat to work and opened windows to cool off the room!
+We continued to have problems until a repair man came and found that the intake for the HVAC unit was too close to the curtains, so they got sucked into the return air vent, thus shutting the thermostat down. He said this is a frequent problem, which led us to wonder why some sort of curtain tie-back wasn't used to prevent it.
+The room itself is much smaller than that at the previous Staybridge Suites. There was no library table and no easy chair in the "living room" - - nor is there...On previous visits to Denver, we have stayed in the Staybridge Suites in the Cherry Creek area of Denver and have always been pleased with our experiences there. My son moved, and the Stapleton Suites was closer to their new house, so we stayed here. The very first thing we noticed was how sterile and unwelcoming the lobby was! Unlike the other Staybridge Suites, there were virtually NO holiday decorations - - or ANY homey touches. The fireplace has never been working to provide a warm,  cheery greeting. Nor was there any hot chocolate or hot cider, or even cookies to welcome guests. Half of the time, there is no one even at the front desk.When we got to our room, we were overwhelmed with the HEAT (77 degrees F!) We could not get the thermostat to work and opened windows to cool off the room!We continued to have problems until a repair man came and found that the intake for the HVAC unit was too close to the curtains, so they got sucked into the return air vent, thus shutting the thermostat down. He said this is a frequent problem, which led us to wonder why some sort of curtain tie-back wasn't used to prevent it.The room itself is much smaller than that at the previous Staybridge Suites. There was no library table and no easy chair in the "living room" - - nor is there any room to accommodate one. There is no coffee table, only two small ottomans, which are not really suitable for holding plates of food or drinks. The kitchen area does have loads of cupboard space, but the "breakfast bar"/ "dining table" is very tall and requires high bar stools to sit on. I have some disabilities which make it very dicey for me to climb up on a high stool. The staff kindly provided me with a chair of regular height, but that puts the counter at the level of my forehead - - not really handy! There are also quite a few of these high tables with bar stools in the breakfast area, and they are NOT user friendly for handicapped quests!Unlike the previous Staybridge (where there is ample storage space), the vanity sink has only one small drawer and a small nook, so there isn't room to neatly store our dop kits, etc. Instead of a metal rack over the toilet to hold towels, (from which I could hang a bag of toiletries that I use in the tub)  there is a minuscule wooden shelf which is BARELY able to hold the towels. And the hook on the back of the door is a SINGLE PEG, so only one person can hang night clothes there! We have NEVER had only one prong on which to hang night clothes! (Consequently, we bought - - and installed - - a couple of command hooks which helped with those issues.)We knew that the rooms had only a light touch-up "cleaning" most of the week, but we had wastebaskets only some of which were emptied. Also, powder and things on the bathroom floor were there for days - - until we requested specially that the floor be swept.The staff have been friendly enough - - when you find them, and the breakfast food is good and nicely served. But this is not enough to get us to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Aaron M, General Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>On previous visits to Denver, we have stayed in the Staybridge Suites in the Cherry Creek area of Denver and have always been pleased with our experiences there. My son moved, and the Stapleton Suites was closer to their new house, so we stayed here. The very first thing we noticed was how sterile and unwelcoming the lobby was! Unlike the other Staybridge Suites, there were virtually NO holiday decorations - - or ANY homey touches. The fireplace has never been working to provide a warm,  cheery greeting. Nor was there any hot chocolate or hot cider, or even cookies to welcome guests. Half of the time, there is no one even at the front desk.
+When we got to our room, we were overwhelmed with the HEAT (77 degrees F!) We could not get the thermostat to work and opened windows to cool off the room!
+We continued to have problems until a repair man came and found that the intake for the HVAC unit was too close to the curtains, so they got sucked into the return air vent, thus shutting the thermostat down. He said this is a frequent problem, which led us to wonder why some sort of curtain tie-back wasn't used to prevent it.
+The room itself is much smaller than that at the previous Staybridge Suites. There was no library table and no easy chair in the "living room" - - nor is there...On previous visits to Denver, we have stayed in the Staybridge Suites in the Cherry Creek area of Denver and have always been pleased with our experiences there. My son moved, and the Stapleton Suites was closer to their new house, so we stayed here. The very first thing we noticed was how sterile and unwelcoming the lobby was! Unlike the other Staybridge Suites, there were virtually NO holiday decorations - - or ANY homey touches. The fireplace has never been working to provide a warm,  cheery greeting. Nor was there any hot chocolate or hot cider, or even cookies to welcome guests. Half of the time, there is no one even at the front desk.When we got to our room, we were overwhelmed with the HEAT (77 degrees F!) We could not get the thermostat to work and opened windows to cool off the room!We continued to have problems until a repair man came and found that the intake for the HVAC unit was too close to the curtains, so they got sucked into the return air vent, thus shutting the thermostat down. He said this is a frequent problem, which led us to wonder why some sort of curtain tie-back wasn't used to prevent it.The room itself is much smaller than that at the previous Staybridge Suites. There was no library table and no easy chair in the "living room" - - nor is there any room to accommodate one. There is no coffee table, only two small ottomans, which are not really suitable for holding plates of food or drinks. The kitchen area does have loads of cupboard space, but the "breakfast bar"/ "dining table" is very tall and requires high bar stools to sit on. I have some disabilities which make it very dicey for me to climb up on a high stool. The staff kindly provided me with a chair of regular height, but that puts the counter at the level of my forehead - - not really handy! There are also quite a few of these high tables with bar stools in the breakfast area, and they are NOT user friendly for handicapped quests!Unlike the previous Staybridge (where there is ample storage space), the vanity sink has only one small drawer and a small nook, so there isn't room to neatly store our dop kits, etc. Instead of a metal rack over the toilet to hold towels, (from which I could hang a bag of toiletries that I use in the tub)  there is a minuscule wooden shelf which is BARELY able to hold the towels. And the hook on the back of the door is a SINGLE PEG, so only one person can hang night clothes there! We have NEVER had only one prong on which to hang night clothes! (Consequently, we bought - - and installed - - a couple of command hooks which helped with those issues.)We knew that the rooms had only a light touch-up "cleaning" most of the week, but we had wastebaskets only some of which were emptied. Also, powder and things on the bathroom floor were there for days - - until we requested specially that the floor be swept.The staff have been friendly enough - - when you find them, and the breakfast food is good and nicely served. But this is not enough to get us to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r332715804-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>332715804</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>The entire staff was exceptional.  They went beyond customer service.</t>
+  </si>
+  <si>
+    <t>The staff were all professional and went beyond caring for their guests.  There was always a smile on their faces, as well as always ready to assist you in anything you may need or request.  The staff all loved their jobs and it showed.   The hotel is very clean, offers a wonderful breakfast and a social gathering a few days a week that feels more like home than anything else.Managers all the way down, exceptional!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>The staff were all professional and went beyond caring for their guests.  There was always a smile on their faces, as well as always ready to assist you in anything you may need or request.  The staff all loved their jobs and it showed.   The hotel is very clean, offers a wonderful breakfast and a social gathering a few days a week that feels more like home than anything else.Managers all the way down, exceptional!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r325156010-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>325156010</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>We have travelled A LOT!  I have to say that this hotel is the best for long term travelers.  The free breakfast everyday is hot and fresh.  Christina is a fantastic hostess for the morning time...not to mention the Monday-Wednesday FREE light dinners.  Michelle at the front desk was an incredible help and I loved how she helped me make all my steps...FitBit...each night.  The housekeeping staff is always on top of,things and I have never seen so many helpful people in one place!  I highly recommend this as a home base if you are traveling to thenRocky MOuntain State Park, about an hour away, or to Boulder for Football...not to mention Bronco games.  This staff...including, Michael, the Director of Sales, are here to help make your stay wonderful.  A HUGE KUDOS to this hotel!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>We have travelled A LOT!  I have to say that this hotel is the best for long term travelers.  The free breakfast everyday is hot and fresh.  Christina is a fantastic hostess for the morning time...not to mention the Monday-Wednesday FREE light dinners.  Michelle at the front desk was an incredible help and I loved how she helped me make all my steps...FitBit...each night.  The housekeeping staff is always on top of,things and I have never seen so many helpful people in one place!  I highly recommend this as a home base if you are traveling to thenRocky MOuntain State Park, about an hour away, or to Boulder for Football...not to mention Bronco games.  This staff...including, Michael, the Director of Sales, are here to help make your stay wonderful.  A HUGE KUDOS to this hotel!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r319858863-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>319858863</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel close to shopping center and restaurants</t>
+  </si>
+  <si>
+    <t>We stayed at Staybridge for 2 nights on a weekend (weekend special). It’s a new hotel close to a shopping center (The shops at Northfield Stapleton) with restaurants. Our arrival at Denver Airport was 9:30 pm, so we were looking for a hotel not too far from the airport. So we decided to book this hotel via Internet from Germany. No problem with the Check-In late at night. The room was clean with modern equipment and the staff was friendly and helpful. The room had a kitchenette with microwave and a big refrigerator. Only one small negative point is to say: There isn’t really something like a dining table.We could reach Downtown very easy (OK, I think on a weekday is more traffic) and also the I-70 for driving to Mount Evans.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at Staybridge for 2 nights on a weekend (weekend special). It’s a new hotel close to a shopping center (The shops at Northfield Stapleton) with restaurants. Our arrival at Denver Airport was 9:30 pm, so we were looking for a hotel not too far from the airport. So we decided to book this hotel via Internet from Germany. No problem with the Check-In late at night. The room was clean with modern equipment and the staff was friendly and helpful. The room had a kitchenette with microwave and a big refrigerator. Only one small negative point is to say: There isn’t really something like a dining table.We could reach Downtown very easy (OK, I think on a weekday is more traffic) and also the I-70 for driving to Mount Evans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r316980794-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>316980794</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>best placed we have stayed in Denver area !</t>
+  </si>
+  <si>
+    <t>Was referred here by the university hospital after transplant and was so relieved ! Amazing staff who went above and beyond and still does every time we stay. The rooms were clean and nice. Great kitchen, large showers and FREE LAUNDRY !!  Definitely a must stay in a great neighborhood.. not to mention the great breakfast daily and the dinners 4 nights a week served with beer and wine..MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Was referred here by the university hospital after transplant and was so relieved ! Amazing staff who went above and beyond and still does every time we stay. The rooms were clean and nice. Great kitchen, large showers and FREE LAUNDRY !!  Definitely a must stay in a great neighborhood.. not to mention the great breakfast daily and the dinners 4 nights a week served with beer and wine..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r310342369-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>310342369</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Nice landing in Denver</t>
+  </si>
+  <si>
+    <t>I have come to the USA for a vacation.  My starting point was Denver.  I booked a room in the Staybridge Suites Denver Stapleton.following the review in trip advisor and its location, which I am familiar with.  My room was spacious and comfortable.  It was quiet at night, but as it faced the front, I heard the sound of cars in early morning,  At that time I was awake because of the jet lag, so the cars didn't really bother me.  On the second night, it was quieter.I stayed in a two queen beds studio suite.  It had a small kitchen, but I only used the refrigerator.They serve hot breakfast, which was fine.  The service at the front desk was good.  They helped me with directions.Overall, I was satisfied with my stay, though I would have preferred a room facing the north side.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>I have come to the USA for a vacation.  My starting point was Denver.  I booked a room in the Staybridge Suites Denver Stapleton.following the review in trip advisor and its location, which I am familiar with.  My room was spacious and comfortable.  It was quiet at night, but as it faced the front, I heard the sound of cars in early morning,  At that time I was awake because of the jet lag, so the cars didn't really bother me.  On the second night, it was quieter.I stayed in a two queen beds studio suite.  It had a small kitchen, but I only used the refrigerator.They serve hot breakfast, which was fine.  The service at the front desk was good.  They helped me with directions.Overall, I was satisfied with my stay, though I would have preferred a room facing the north side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r305417511-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>305417511</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Can't think of a better place to stay...</t>
+  </si>
+  <si>
+    <t>This was a really great hotel for our 5 night stay.
+Check-in was smooth and friendly.  We got into our room a tad early, too.
+We stayed in a one-bedroom, 2 queen suite using points (we actually ended up getting an upgrade, which was nice, because there were 4 of us) and the room was fantastic.  We were on the top floor at the end of the hall and it was super quiet.  I slept like a baby.  The beds were comfy, the room clean, and amazing amenities.  Great WiFi.  Kitchen was awesome - only lacking a kettle, but had dishes, utensils and pots/pans.
+The hotel itself was top-notch - great amenities -  work out room (stairclimber, 2 treadmills and weights) - with a TV and connected through a door to the laundry room (FREE laundry facilities people! I bought some laundry soap at Target - but they left some there, too!).  The pool had salt-water, which was a little disappointing for my kids (they don't like salt-water pools). The business center was good with 3 computers and a printer.
+The breakfasts were good - but they got old, fast.  Hot food was a rotation of eggs, bacon, sausage patties, biscuits, etc.  There was oatmeal and a waffle maker.  Usual bagels, bread, muffins and cereal, as well as hard boiled eggs, yogurt and fruit.  Coffee was typical hotel dishwater, but thankfully I had hot water for my tea/starbucks via.
+WiFi...This was a really great hotel for our 5 night stay.Check-in was smooth and friendly.  We got into our room a tad early, too.We stayed in a one-bedroom, 2 queen suite using points (we actually ended up getting an upgrade, which was nice, because there were 4 of us) and the room was fantastic.  We were on the top floor at the end of the hall and it was super quiet.  I slept like a baby.  The beds were comfy, the room clean, and amazing amenities.  Great WiFi.  Kitchen was awesome - only lacking a kettle, but had dishes, utensils and pots/pans.The hotel itself was top-notch - great amenities -  work out room (stairclimber, 2 treadmills and weights) - with a TV and connected through a door to the laundry room (FREE laundry facilities people! I bought some laundry soap at Target - but they left some there, too!).  The pool had salt-water, which was a little disappointing for my kids (they don't like salt-water pools). The business center was good with 3 computers and a printer.The breakfasts were good - but they got old, fast.  Hot food was a rotation of eggs, bacon, sausage patties, biscuits, etc.  There was oatmeal and a waffle maker.  Usual bagels, bread, muffins and cereal, as well as hard boiled eggs, yogurt and fruit.  Coffee was typical hotel dishwater, but thankfully I had hot water for my tea/starbucks via.WiFi was fast and generally reliable with only a few hiccups. Parking was free and always ample.  There are several elevators in the hotel, so easy to get to your room quickly (stairs were good, too).The location is the BEST!   Right next to a new, cute residential neighbourhood, so it felt safe.  Also so close to the highway (but not too close) and Quebec street (which also has tons of shops and restaurants), plus walking distance to Northfield shops and restaurants (right across the street).  Also very close to Dick's Sporting Goods Park, and only a short drive downtown to Coors Field.  Also only 20-25 mins to the airport.  Really a central place to be.  The location doesn't get any better than this.  Only downside, no public transit nearby. All in all, a near perfect stay.  The only bad experience we had was with housekeeping.  We checked in on Saturday at lunch time.  We requested light weekend cleaning service and didn't get it.  Then they didn't show up on Monday either.  On Monday night I called to get towels and have garbage removed, and front desk person said he was alone and I'd need to wait 20 minutes for towels.  I then replied then I'll come down to get them myself, as we were fresh out after 3 days with no service.  I had to wait to get towels while that one front desk guy on staff checked in someone.  I also brought down my 3 days worth of garbage (in nicely tied garbage bags).  The guy told me to throw it in the bins outside and I looked at him as if to say, "Really?" and then he said, "Don't worry, I've got it".  And then he handed me 3 towels and said they were running low.  Ugh.Thankfully, our room was thoroughly cleaned on day 4, and upon check-out, the front desk gal took down all the info for the bad cleaning experience and explained that they were in the midst of hiring a new housekeeping supervisor, as one had just gone on mat leave.  She also was nice and compensated me with points for the inconvenience.  Despite that bad experience, everything else was perfecto!  I didn't judge this wonderfully run hotel on this one bad experience, because obviously that was the exception and not the norm at this place.  I'd gladly stay again, and I honestly can't think of a better place for people to bring their families when they visit Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>This was a really great hotel for our 5 night stay.
+Check-in was smooth and friendly.  We got into our room a tad early, too.
+We stayed in a one-bedroom, 2 queen suite using points (we actually ended up getting an upgrade, which was nice, because there were 4 of us) and the room was fantastic.  We were on the top floor at the end of the hall and it was super quiet.  I slept like a baby.  The beds were comfy, the room clean, and amazing amenities.  Great WiFi.  Kitchen was awesome - only lacking a kettle, but had dishes, utensils and pots/pans.
+The hotel itself was top-notch - great amenities -  work out room (stairclimber, 2 treadmills and weights) - with a TV and connected through a door to the laundry room (FREE laundry facilities people! I bought some laundry soap at Target - but they left some there, too!).  The pool had salt-water, which was a little disappointing for my kids (they don't like salt-water pools). The business center was good with 3 computers and a printer.
+The breakfasts were good - but they got old, fast.  Hot food was a rotation of eggs, bacon, sausage patties, biscuits, etc.  There was oatmeal and a waffle maker.  Usual bagels, bread, muffins and cereal, as well as hard boiled eggs, yogurt and fruit.  Coffee was typical hotel dishwater, but thankfully I had hot water for my tea/starbucks via.
+WiFi...This was a really great hotel for our 5 night stay.Check-in was smooth and friendly.  We got into our room a tad early, too.We stayed in a one-bedroom, 2 queen suite using points (we actually ended up getting an upgrade, which was nice, because there were 4 of us) and the room was fantastic.  We were on the top floor at the end of the hall and it was super quiet.  I slept like a baby.  The beds were comfy, the room clean, and amazing amenities.  Great WiFi.  Kitchen was awesome - only lacking a kettle, but had dishes, utensils and pots/pans.The hotel itself was top-notch - great amenities -  work out room (stairclimber, 2 treadmills and weights) - with a TV and connected through a door to the laundry room (FREE laundry facilities people! I bought some laundry soap at Target - but they left some there, too!).  The pool had salt-water, which was a little disappointing for my kids (they don't like salt-water pools). The business center was good with 3 computers and a printer.The breakfasts were good - but they got old, fast.  Hot food was a rotation of eggs, bacon, sausage patties, biscuits, etc.  There was oatmeal and a waffle maker.  Usual bagels, bread, muffins and cereal, as well as hard boiled eggs, yogurt and fruit.  Coffee was typical hotel dishwater, but thankfully I had hot water for my tea/starbucks via.WiFi was fast and generally reliable with only a few hiccups. Parking was free and always ample.  There are several elevators in the hotel, so easy to get to your room quickly (stairs were good, too).The location is the BEST!   Right next to a new, cute residential neighbourhood, so it felt safe.  Also so close to the highway (but not too close) and Quebec street (which also has tons of shops and restaurants), plus walking distance to Northfield shops and restaurants (right across the street).  Also very close to Dick's Sporting Goods Park, and only a short drive downtown to Coors Field.  Also only 20-25 mins to the airport.  Really a central place to be.  The location doesn't get any better than this.  Only downside, no public transit nearby. All in all, a near perfect stay.  The only bad experience we had was with housekeeping.  We checked in on Saturday at lunch time.  We requested light weekend cleaning service and didn't get it.  Then they didn't show up on Monday either.  On Monday night I called to get towels and have garbage removed, and front desk person said he was alone and I'd need to wait 20 minutes for towels.  I then replied then I'll come down to get them myself, as we were fresh out after 3 days with no service.  I had to wait to get towels while that one front desk guy on staff checked in someone.  I also brought down my 3 days worth of garbage (in nicely tied garbage bags).  The guy told me to throw it in the bins outside and I looked at him as if to say, "Really?" and then he said, "Don't worry, I've got it".  And then he handed me 3 towels and said they were running low.  Ugh.Thankfully, our room was thoroughly cleaned on day 4, and upon check-out, the front desk gal took down all the info for the bad cleaning experience and explained that they were in the midst of hiring a new housekeeping supervisor, as one had just gone on mat leave.  She also was nice and compensated me with points for the inconvenience.  Despite that bad experience, everything else was perfecto!  I didn't judge this wonderfully run hotel on this one bad experience, because obviously that was the exception and not the norm at this place.  I'd gladly stay again, and I honestly can't think of a better place for people to bring their families when they visit Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r302929563-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>302929563</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Stay at Staybridge</t>
+  </si>
+  <si>
+    <t>Very clean and very helpful. We are truck drivers and our truck went in the shop for a couple days. So we last minute booked hotel and had Uber pick us up. Right across the road from hotel was The Shops and Bass Pro so of coarse great food and walking to stores. Free laundry and free breakfast made our 3 days there even better deal. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean and very helpful. We are truck drivers and our truck went in the shop for a couple days. So we last minute booked hotel and had Uber pick us up. Right across the road from hotel was The Shops and Bass Pro so of coarse great food and walking to stores. Free laundry and free breakfast made our 3 days there even better deal. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r297643473-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>297643473</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>NIce hotel, great area</t>
+  </si>
+  <si>
+    <t>Stayed here for two night while visiting a friend who is hospitalized at UC Hospital in Aurora. Very nice, new, extended stay hotel offers everything you need. Checkin-in was efficient even at the late hour we arrived and my room request was met without hesitation. Room was very nice and super clean. Two rooms with a nice kitchen, breakfast bar and living room and a seperate bedroom.  All amenities you would expect and a well-stocked kitchen including icemaker!  Nice touch was a water pitcher in the fridge for water.Breakfast bar was the usual fare you would expect. Saturday morning was very busy and they were out of plates and silverware for alot of the time. Only saw one worker trying hard to keep everything stocked.Nice commons area and a very nice outdoor area including firepits and BBQ grills for guests to use.Our room AC was not working but they sent a maintenance worker right away when we called and he was able to fix the problem immediatly.  Location is very good, next to the nice Northfield shopping area wich includes a variety of restaurants and entertainment choices. Easy drive to the Anshutz medical campus.  I would definitly stay here again if I need to be back in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for two night while visiting a friend who is hospitalized at UC Hospital in Aurora. Very nice, new, extended stay hotel offers everything you need. Checkin-in was efficient even at the late hour we arrived and my room request was met without hesitation. Room was very nice and super clean. Two rooms with a nice kitchen, breakfast bar and living room and a seperate bedroom.  All amenities you would expect and a well-stocked kitchen including icemaker!  Nice touch was a water pitcher in the fridge for water.Breakfast bar was the usual fare you would expect. Saturday morning was very busy and they were out of plates and silverware for alot of the time. Only saw one worker trying hard to keep everything stocked.Nice commons area and a very nice outdoor area including firepits and BBQ grills for guests to use.Our room AC was not working but they sent a maintenance worker right away when we called and he was able to fix the problem immediatly.  Location is very good, next to the nice Northfield shopping area wich includes a variety of restaurants and entertainment choices. Easy drive to the Anshutz medical campus.  I would definitly stay here again if I need to be back in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r290106655-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>290106655</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>I am currently staying at Staybridge suites and it is just amazing! We originally scheduled a one bed suite but got an upgrade and got 2 separate master rooms. The free breakfast was pretty good. The only  complaint is that it is very loud on the first floor. Other than that I love the hotel and will come back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>I am currently staying at Staybridge suites and it is just amazing! We originally scheduled a one bed suite but got an upgrade and got 2 separate master rooms. The free breakfast was pretty good. The only  complaint is that it is very loud on the first floor. Other than that I love the hotel and will come back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r280670975-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>280670975</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Awesome Night Staff</t>
+  </si>
+  <si>
+    <t>Let me first start off by saying Michelle at the front desk was AMAZING. Every interaction we witnessed was so amazing, including our interactions with her. She really made us feel at home. The hotel is a beautiful property in a great location. I understand it is a new property, but there were a few downfalls to the hotel. The cleanliness was lacking. Everything from the pool to our own bathroom was slightly dirty like they hadn't been mopped. We found cheerios under the foldout bed.The last day we were there we found a moldy cup in the window sill. There were small things like this that were completely missed throughout the hotel. Another thing that we ran into was the lack of plates at breakfast. We had to wait for 40 minutes until they cleaned some. The manager should have noticed this problem and either ordered more, or at least bought paper plates from the target across the street to have a temporary bandaid fix until they could buy more plates and silverware. Overall, if they didn't have such an awesome front desk, this hotel would have gotten a 2 or 3 star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hope R, Director of Sales at Staybridge Suites Denver Stapleton, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Let me first start off by saying Michelle at the front desk was AMAZING. Every interaction we witnessed was so amazing, including our interactions with her. She really made us feel at home. The hotel is a beautiful property in a great location. I understand it is a new property, but there were a few downfalls to the hotel. The cleanliness was lacking. Everything from the pool to our own bathroom was slightly dirty like they hadn't been mopped. We found cheerios under the foldout bed.The last day we were there we found a moldy cup in the window sill. There were small things like this that were completely missed throughout the hotel. Another thing that we ran into was the lack of plates at breakfast. We had to wait for 40 minutes until they cleaned some. The manager should have noticed this problem and either ordered more, or at least bought paper plates from the target across the street to have a temporary bandaid fix until they could buy more plates and silverware. Overall, if they didn't have such an awesome front desk, this hotel would have gotten a 2 or 3 star rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r280494547-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>280494547</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Stay in Denver</t>
+  </si>
+  <si>
+    <t>This was my first stay with a Staybridge Inn and Suites.  It won't be my last!  I will definitely look in other places I visit for a Staybridge.  The room/suite was awesome.  Everything was clean and comfortable!  The staff was friendly and did a great job.  I was going to arrive at the airport much later than initially planned and called the hotel to make sure my late arrival wouldn't cause any issues, and to let them know.   I identified myself when they answered and they immediately told me they had the reservation, and there would be no problem, whenever I arrived.  I didn't have to get the confirmation number and didn't have to wait while someone looked it up.  It was like they pulled up my name immediately when I said who I was.  We weren't familiar with the Denver area, but this hotel had easy access to the airport, interstates and downtown, yet the area was not overcrowded/busy.  There was no extreme hustle/bustle in the immediate area...very nice.  There was a shopping area right nearby but we weren't there to shop.  There was a Starbucks right across the street, which was nice.  They had a hot breakfast so we could get something good to eat before we took off for the day, rather than a continental breakfast, which leaves you hungry in an hour.  The stay here really helped make our trip what it was, which was GREAT!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This was my first stay with a Staybridge Inn and Suites.  It won't be my last!  I will definitely look in other places I visit for a Staybridge.  The room/suite was awesome.  Everything was clean and comfortable!  The staff was friendly and did a great job.  I was going to arrive at the airport much later than initially planned and called the hotel to make sure my late arrival wouldn't cause any issues, and to let them know.   I identified myself when they answered and they immediately told me they had the reservation, and there would be no problem, whenever I arrived.  I didn't have to get the confirmation number and didn't have to wait while someone looked it up.  It was like they pulled up my name immediately when I said who I was.  We weren't familiar with the Denver area, but this hotel had easy access to the airport, interstates and downtown, yet the area was not overcrowded/busy.  There was no extreme hustle/bustle in the immediate area...very nice.  There was a shopping area right nearby but we weren't there to shop.  There was a Starbucks right across the street, which was nice.  They had a hot breakfast so we could get something good to eat before we took off for the day, rather than a continental breakfast, which leaves you hungry in an hour.  The stay here really helped make our trip what it was, which was GREAT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r275973371-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>275973371</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Not Worth the Money</t>
+  </si>
+  <si>
+    <t>We booked this for $158 a night and had higher expectations.  The manager was pleasant and the front desk staff was good.  The housekeeping needs to be a lot better before I would stay again.  The cushions under the sofa were littered with someone else's popcorn leftovers which they did come right away to clean but there were a lot of other things that could have been cleaned better - dishes, dusting, etc.The location was very convenient to Dick's Sporting Goods but there is a lot of construction going on in the subdivision in which this hotel is planted that made for a lot of noise and dust.  The windows on our unit were really grubby.  Beds were comfortable, breakfast was okay - good spread.  The fitness center was good - free weights, cardio machines, yoga mats, cool temperature, weight machine, all in good condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson H, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>We booked this for $158 a night and had higher expectations.  The manager was pleasant and the front desk staff was good.  The housekeeping needs to be a lot better before I would stay again.  The cushions under the sofa were littered with someone else's popcorn leftovers which they did come right away to clean but there were a lot of other things that could have been cleaned better - dishes, dusting, etc.The location was very convenient to Dick's Sporting Goods but there is a lot of construction going on in the subdivision in which this hotel is planted that made for a lot of noise and dust.  The windows on our unit were really grubby.  Beds were comfortable, breakfast was okay - good spread.  The fitness center was good - free weights, cardio machines, yoga mats, cool temperature, weight machine, all in good condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r274798943-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>274798943</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Easy for extended stay</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel, across the street from the Northfield mall, for 10 days with small children while we waited to move into a house. Very clean, new rooms, plenty of space, and most importantly, equipped with kitchenettes that were enough for me to cook multiple meals per day for restaurant-weary kids.  The pool was fun; the laundry amenities very helpful; internet and TV services great. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Hope R, Director of Sales at Staybridge Suites Denver Stapleton, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel, across the street from the Northfield mall, for 10 days with small children while we waited to move into a house. Very clean, new rooms, plenty of space, and most importantly, equipped with kitchenettes that were enough for me to cook multiple meals per day for restaurant-weary kids.  The pool was fun; the laundry amenities very helpful; internet and TV services great. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r273877779-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>273877779</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Non-standard hotel and all the better for it!</t>
+  </si>
+  <si>
+    <t>Booked here for a conference - affordable and not too far to travel into the city centre if you have a car.Interesting model: large, modern rooms, all with good kitchenette, workspace, sitting area, sleeping area and shower room; Great free wifi; free serve yourself breakfast including fruit, yoghurt, make your own waffles, toast, bagels, muffins, cheese and two hot items, and free dinner 3 nights a week.  Ok gym and pool.  BUT, rooms cleaned only 1x per week, so make your choice!Close to a small mall including a market, so easy to cater for yourself.  Great staffNote: if you're a light sleeper, demand a room far from the lifts, which make a very loud doorbell noise when they arrive at the floor!MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked here for a conference - affordable and not too far to travel into the city centre if you have a car.Interesting model: large, modern rooms, all with good kitchenette, workspace, sitting area, sleeping area and shower room; Great free wifi; free serve yourself breakfast including fruit, yoghurt, make your own waffles, toast, bagels, muffins, cheese and two hot items, and free dinner 3 nights a week.  Ok gym and pool.  BUT, rooms cleaned only 1x per week, so make your choice!Close to a small mall including a market, so easy to cater for yourself.  Great staffNote: if you're a light sleeper, demand a room far from the lifts, which make a very loud doorbell noise when they arrive at the floor!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r270074360-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>270074360</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Yay! Finally a new place in Stapleton</t>
+  </si>
+  <si>
+    <t>I stayed here in March for my annual trip and will do so again next year. This place was so perfect for my needs. There was a separate bedroom with a door so I could wonder around and watch TV while my bf was asleep. It has a full kitchen, which was awesome for leftovers from all the great restaurants that are like 2 minutes awayThere is shopping and movies and a nail salon all right across the street, thats all I need!Also their breakfast is really good, eggs and a protein, fruit and waffles. There is a nice pool and small workout room too.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Hope R, Director of Sales at Staybridge Suites Denver Stapleton, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here in March for my annual trip and will do so again next year. This place was so perfect for my needs. There was a separate bedroom with a door so I could wonder around and watch TV while my bf was asleep. It has a full kitchen, which was awesome for leftovers from all the great restaurants that are like 2 minutes awayThere is shopping and movies and a nail salon all right across the street, thats all I need!Also their breakfast is really good, eggs and a protein, fruit and waffles. There is a nice pool and small workout room too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r266165743-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>266165743</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Top quality stay</t>
+  </si>
+  <si>
+    <t>Hotel is simply great forIts category. Large rooms, clean facilities and loaded with nice amenities such as happy snack hour, free parking, free wifi and more. I only wish it had motor lobby for easy check in and out. Gotta review those architectural design plans. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hope R, Director of Sales at Staybridge Suites Denver Stapleton, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is simply great forIts category. Large rooms, clean facilities and loaded with nice amenities such as happy snack hour, free parking, free wifi and more. I only wish it had motor lobby for easy check in and out. Gotta review those architectural design plans. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r260437899-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>260437899</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>I chose a surgeon based on this hotel.</t>
+  </si>
+  <si>
+    <t>When I had to have a tendon transfer and ankle reconstruction, I moved to Denver temporarily to be near family. With no weight on that foot for six weeks, I stayed at the Staybridge, where you get a nice discount if your surgery is at Un. of Colorado Hospital. While I was there, that hospital was chosen #1 Orthopedic Hospital in the U.S., so don't just go for the hotel. I had a lovely, fully accessible suite with a kitchen that accommodated ed my knee scooter extremely well. Included with the stay was a breakfast buffet every day, dinner three nights a week (including a Wednesday night cook-out around the fire pit), free laundry, a small in-hotel store, a pool, hot tub and small fitness center. The hotel is very pet friendly, and while my dogs stayed with family, they came over to visit regularly, and Cricket, the 16-year-old, would sometimes stay overnight. The staff are amazing. I was the first person to stay in my room and they were finishing it around me, but the head of maintenance became like a friend. If you want great rates, great amenities and unparalled customer service, choose this hotel in the Stapleton area. No wonder many residents stay for months.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Hope R, Director of Sales at Staybridge Suites Denver Stapleton, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>When I had to have a tendon transfer and ankle reconstruction, I moved to Denver temporarily to be near family. With no weight on that foot for six weeks, I stayed at the Staybridge, where you get a nice discount if your surgery is at Un. of Colorado Hospital. While I was there, that hospital was chosen #1 Orthopedic Hospital in the U.S., so don't just go for the hotel. I had a lovely, fully accessible suite with a kitchen that accommodated ed my knee scooter extremely well. Included with the stay was a breakfast buffet every day, dinner three nights a week (including a Wednesday night cook-out around the fire pit), free laundry, a small in-hotel store, a pool, hot tub and small fitness center. The hotel is very pet friendly, and while my dogs stayed with family, they came over to visit regularly, and Cricket, the 16-year-old, would sometimes stay overnight. The staff are amazing. I was the first person to stay in my room and they were finishing it around me, but the head of maintenance became like a friend. If you want great rates, great amenities and unparalled customer service, choose this hotel in the Stapleton area. No wonder many residents stay for months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r254380351-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>254380351</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Wonderful and friendly!</t>
+  </si>
+  <si>
+    <t>I fell in love with Staybridge Suites, when I first discovered the brand, 7 years ago.  It's so warm and homey!  So, when my daughter and I planned a "Denver Adventure" for just one night, I immediately went with Staybridge!  So glad I did!  From the second we walked in, Michelle was so friendly and accomodating, as I requested a room farther from the elevator.  As we left for dinner, and upon return, she again checked with us and wished us well.
+The room was clean and spacious.  The bed was very comfortable!  My daughter used the pull-out sofa bed and declared it the best she's slept on!  We easily found the bedding for the sofa bed in the closet and were surprised to find 2 sets of sheets, two blankets and 2 pillows!  It would've been  nice to have a full comforter on the King bed for extra warmth, but I just made the "decorative" one work, since my daughter was using the extra blankets.
+The one problem I had was the noise from the main road!  The bedroom I had faced the road, and even with the fan I'd brought for background noise, it took me a while to fall asleep.  It was Valentine's Day, so the shopping/restaurant area directly across the street was extra busy.  At check-out, Rosa listened to my mention of the road noise, apologized, and pleasantly made a great suggestion to try next time,...I fell in love with Staybridge Suites, when I first discovered the brand, 7 years ago.  It's so warm and homey!  So, when my daughter and I planned a "Denver Adventure" for just one night, I immediately went with Staybridge!  So glad I did!  From the second we walked in, Michelle was so friendly and accomodating, as I requested a room farther from the elevator.  As we left for dinner, and upon return, she again checked with us and wished us well.The room was clean and spacious.  The bed was very comfortable!  My daughter used the pull-out sofa bed and declared it the best she's slept on!  We easily found the bedding for the sofa bed in the closet and were surprised to find 2 sets of sheets, two blankets and 2 pillows!  It would've been  nice to have a full comforter on the King bed for extra warmth, but I just made the "decorative" one work, since my daughter was using the extra blankets.The one problem I had was the noise from the main road!  The bedroom I had faced the road, and even with the fan I'd brought for background noise, it took me a while to fall asleep.  It was Valentine's Day, so the shopping/restaurant area directly across the street was extra busy.  At check-out, Rosa listened to my mention of the road noise, apologized, and pleasantly made a great suggestion to try next time, requesting a room on the back side of the hotel or the west, for great mountain views!The breakfast buffet was wonderful:  eggs, ham, fresh fruit.  Plus, make your own waffle, oatmeal, yogurt, toast, muffins, bagels and more!  We swam in the indoor pool, and though it's not very deep ( 4'6" at deepest), it was heated and felt great!  There's a hot tub as well.The best part was how quiet the hotel was, even though by the looks of the parking lot, it was very full!Another wonderful Staybridge visit.  We'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded February 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2015</t>
+  </si>
+  <si>
+    <t>I fell in love with Staybridge Suites, when I first discovered the brand, 7 years ago.  It's so warm and homey!  So, when my daughter and I planned a "Denver Adventure" for just one night, I immediately went with Staybridge!  So glad I did!  From the second we walked in, Michelle was so friendly and accomodating, as I requested a room farther from the elevator.  As we left for dinner, and upon return, she again checked with us and wished us well.
+The room was clean and spacious.  The bed was very comfortable!  My daughter used the pull-out sofa bed and declared it the best she's slept on!  We easily found the bedding for the sofa bed in the closet and were surprised to find 2 sets of sheets, two blankets and 2 pillows!  It would've been  nice to have a full comforter on the King bed for extra warmth, but I just made the "decorative" one work, since my daughter was using the extra blankets.
+The one problem I had was the noise from the main road!  The bedroom I had faced the road, and even with the fan I'd brought for background noise, it took me a while to fall asleep.  It was Valentine's Day, so the shopping/restaurant area directly across the street was extra busy.  At check-out, Rosa listened to my mention of the road noise, apologized, and pleasantly made a great suggestion to try next time,...I fell in love with Staybridge Suites, when I first discovered the brand, 7 years ago.  It's so warm and homey!  So, when my daughter and I planned a "Denver Adventure" for just one night, I immediately went with Staybridge!  So glad I did!  From the second we walked in, Michelle was so friendly and accomodating, as I requested a room farther from the elevator.  As we left for dinner, and upon return, she again checked with us and wished us well.The room was clean and spacious.  The bed was very comfortable!  My daughter used the pull-out sofa bed and declared it the best she's slept on!  We easily found the bedding for the sofa bed in the closet and were surprised to find 2 sets of sheets, two blankets and 2 pillows!  It would've been  nice to have a full comforter on the King bed for extra warmth, but I just made the "decorative" one work, since my daughter was using the extra blankets.The one problem I had was the noise from the main road!  The bedroom I had faced the road, and even with the fan I'd brought for background noise, it took me a while to fall asleep.  It was Valentine's Day, so the shopping/restaurant area directly across the street was extra busy.  At check-out, Rosa listened to my mention of the road noise, apologized, and pleasantly made a great suggestion to try next time, requesting a room on the back side of the hotel or the west, for great mountain views!The breakfast buffet was wonderful:  eggs, ham, fresh fruit.  Plus, make your own waffle, oatmeal, yogurt, toast, muffins, bagels and more!  We swam in the indoor pool, and though it's not very deep ( 4'6" at deepest), it was heated and felt great!  There's a hot tub as well.The best part was how quiet the hotel was, even though by the looks of the parking lot, it was very full!Another wonderful Staybridge visit.  We'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r249696575-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>249696575</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable Experience at Staybridge Suites</t>
+  </si>
+  <si>
+    <t>My stay at Staybridge Suites in Stapleton exceeded my expectations with the suite I stayed in for 18 days.  The staff went out of their way to meet my requests and they were friendly, courteous and helpful.  As a cancer patient I needed a quiet, restful and pleasant atmosphere to recover in, Stay Bridge Suites provided these.  The only issues I had with Staybridge was the somewhat lack of communication between the front desk and Housekeeping staff.  On several occasions I did not receive cleaning services as requested.  Again, thank you for helping making my stay enjoyable during a most difficult time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>My stay at Staybridge Suites in Stapleton exceeded my expectations with the suite I stayed in for 18 days.  The staff went out of their way to meet my requests and they were friendly, courteous and helpful.  As a cancer patient I needed a quiet, restful and pleasant atmosphere to recover in, Stay Bridge Suites provided these.  The only issues I had with Staybridge was the somewhat lack of communication between the front desk and Housekeeping staff.  On several occasions I did not receive cleaning services as requested.  Again, thank you for helping making my stay enjoyable during a most difficult time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r248180097-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>248180097</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>New, comfortable, friendly</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites in Stapleton is conveniently located off a major highway. There is shopping and dining across the street. They have clean rooms and a great hot breakfast buffet. Access to Aurora and Denver International airport was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded January 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2015</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites in Stapleton is conveniently located off a major highway. There is shopping and dining across the street. They have clean rooms and a great hot breakfast buffet. Access to Aurora and Denver International airport was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r239994983-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>239994983</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>BRAND NEW and very clean</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best I've stayed in recently.  It's brand new and super clean.  The amenities are all great including the kitchenette, bedding, bathrooms, etc.  Honestly, I felt like this was better than my home (not true of a lot of hotels I stay in).  The staff was accommodating, but not overbearing either.  MANY KUDOS to the staff for finding my wedding ring and not stealing it!  I had called immediately after checking out, but they could've just said "nope, we didn't find it."  Instead, they held it for me until the next day (saving me money and possibly a divorce!)If you are staying in Stapleton, this hotel is highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best I've stayed in recently.  It's brand new and super clean.  The amenities are all great including the kitchenette, bedding, bathrooms, etc.  Honestly, I felt like this was better than my home (not true of a lot of hotels I stay in).  The staff was accommodating, but not overbearing either.  MANY KUDOS to the staff for finding my wedding ring and not stealing it!  I had called immediately after checking out, but they could've just said "nope, we didn't find it."  Instead, they held it for me until the next day (saving me money and possibly a divorce!)If you are staying in Stapleton, this hotel is highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r235809617-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>235809617</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Nice stay, great location</t>
+  </si>
+  <si>
+    <t>This is a new property and convenient to shopping, restaurants, NorthField Shopping District is right across the street. Rt 70 is also close and the airport not far. Friendly staff and good breakfast, 3 nights of lite meals in the lobby. Stays of less than a week have daily maid service, longer than week, once a week service. 3 different suites available each with kitchen area to prepare meals if you wish.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>This is a new property and convenient to shopping, restaurants, NorthField Shopping District is right across the street. Rt 70 is also close and the airport not far. Friendly staff and good breakfast, 3 nights of lite meals in the lobby. Stays of less than a week have daily maid service, longer than week, once a week service. 3 different suites available each with kitchen area to prepare meals if you wish.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r235461869-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>235461869</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Walk to shopping and restaurants</t>
+  </si>
+  <si>
+    <t>This is my second stay here in a month. It's not close to where I need to be but I love staying here. The property is very clean and you can walk to target, Fridays and many other shops! Nice little OnSite shop for forgotten items or treats. The breakfast is typical of a hotel in this category but I'm more impressed with how attentive the staff is at seeing it run smoothly. Can't wait to stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded October 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2014</t>
+  </si>
+  <si>
+    <t>This is my second stay here in a month. It's not close to where I need to be but I love staying here. The property is very clean and you can walk to target, Fridays and many other shops! Nice little OnSite shop for forgotten items or treats. The breakfast is typical of a hotel in this category but I'm more impressed with how attentive the staff is at seeing it run smoothly. Can't wait to stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r229517317-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229517317</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>New&amp; nice with kinks</t>
+  </si>
+  <si>
+    <t>Brand new property nice and great location.  Staff not very knowledgeable, we were told that a taxi would cost $35 from airport but it was closer to $65. 
+We arrived at 8:30am we knew checkin was at 3 pm. we put our luggage in storage and  gave our cell # to  desk clerk and she could give us a call if our room became available. We returned to the hotel at 3pm and rooms were not ready, we and others were in lobby waiting for a room. We were told that the general manager was doing room inspections, we waited patiently until after 5 PM. Finally we saw an approach the general manager and ask about our rooms and we got a room near 5:30pm. 
+When making our reservations we asked if it was a shuttle bus and was told yes.  Upon arrival we were told that it was for corporation use only and not for all guest. 
+We could not believe there was a new hotel with toilet flushing issues. We called for repairs at 6:30am and went out around 10am repairs took place after that.
+We were told that this was an extended stay facility and that we would not get housekeeping service unless we requested it at which time we did.  We made this request daily since we were paying $250 per night for this room.  We were there four nights, only  one night we return at...Brand new property nice and great location.  Staff not very knowledgeable, we were told that a taxi would cost $35 from airport but it was closer to $65. We arrived at 8:30am we knew checkin was at 3 pm. we put our luggage in storage and  gave our cell # to  desk clerk and she could give us a call if our room became available. We returned to the hotel at 3pm and rooms were not ready, we and others were in lobby waiting for a room. We were told that the general manager was doing room inspections, we waited patiently until after 5 PM. Finally we saw an approach the general manager and ask about our rooms and we got a room near 5:30pm. When making our reservations we asked if it was a shuttle bus and was told yes.  Upon arrival we were told that it was for corporation use only and not for all guest. We could not believe there was a new hotel with toilet flushing issues. We called for repairs at 6:30am and went out around 10am repairs took place after that.We were told that this was an extended stay facility and that we would not get housekeeping service unless we requested it at which time we did.  We made this request daily since we were paying $250 per night for this room.  We were there four nights, only  one night we return at 10 PM only to find our garbage never removed no fresh towels  no service at all. One night upon return we got service but no towels,  we called  for towels we receive kitchen towelsMoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded September 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2014</t>
+  </si>
+  <si>
+    <t>Brand new property nice and great location.  Staff not very knowledgeable, we were told that a taxi would cost $35 from airport but it was closer to $65. 
+We arrived at 8:30am we knew checkin was at 3 pm. we put our luggage in storage and  gave our cell # to  desk clerk and she could give us a call if our room became available. We returned to the hotel at 3pm and rooms were not ready, we and others were in lobby waiting for a room. We were told that the general manager was doing room inspections, we waited patiently until after 5 PM. Finally we saw an approach the general manager and ask about our rooms and we got a room near 5:30pm. 
+When making our reservations we asked if it was a shuttle bus and was told yes.  Upon arrival we were told that it was for corporation use only and not for all guest. 
+We could not believe there was a new hotel with toilet flushing issues. We called for repairs at 6:30am and went out around 10am repairs took place after that.
+We were told that this was an extended stay facility and that we would not get housekeeping service unless we requested it at which time we did.  We made this request daily since we were paying $250 per night for this room.  We were there four nights, only  one night we return at...Brand new property nice and great location.  Staff not very knowledgeable, we were told that a taxi would cost $35 from airport but it was closer to $65. We arrived at 8:30am we knew checkin was at 3 pm. we put our luggage in storage and  gave our cell # to  desk clerk and she could give us a call if our room became available. We returned to the hotel at 3pm and rooms were not ready, we and others were in lobby waiting for a room. We were told that the general manager was doing room inspections, we waited patiently until after 5 PM. Finally we saw an approach the general manager and ask about our rooms and we got a room near 5:30pm. When making our reservations we asked if it was a shuttle bus and was told yes.  Upon arrival we were told that it was for corporation use only and not for all guest. We could not believe there was a new hotel with toilet flushing issues. We called for repairs at 6:30am and went out around 10am repairs took place after that.We were told that this was an extended stay facility and that we would not get housekeeping service unless we requested it at which time we did.  We made this request daily since we were paying $250 per night for this room.  We were there four nights, only  one night we return at 10 PM only to find our garbage never removed no fresh towels  no service at all. One night upon return we got service but no towels,  we called  for towels we receive kitchen towelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r229280433-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229280433</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>very nice new hotel</t>
+  </si>
+  <si>
+    <t>This Staybridge was very nice, clean, and had a helpful staff.  I would have given it five stars except we were put in a room  adjoining the elevator shaft despite my request for a quiet location and being IHG frequent traveller.  It was pretty noisy.  Otherwise, the hotel had a decent breakfast, nice room,  free laundry, average pool, and a fairly good dinner some nights.  I would stay here again as the location was pretty good.  Denver traffic was horrible, so no place would have been convenient, but this was not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This Staybridge was very nice, clean, and had a helpful staff.  I would have given it five stars except we were put in a room  adjoining the elevator shaft despite my request for a quiet location and being IHG frequent traveller.  It was pretty noisy.  Otherwise, the hotel had a decent breakfast, nice room,  free laundry, average pool, and a fairly good dinner some nights.  I would stay here again as the location was pretty good.  Denver traffic was horrible, so no place would have been convenient, but this was not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r228806522-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>228806522</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel-but they need to figure out how to run it!</t>
+  </si>
+  <si>
+    <t>After having traveled since 4am with my three small children we were disappointed that we had to wait over an hour past our check in time in the lobby (with a handful of other people) to get our room. The shower had hair in it and had not been cleaned. Gross! We didn't get housekeeping after requesting it. However, they made sure to knock loudly on our door at 7am the day of check out. (Waking our small children). There were missing pieces of tile in the bathroom also. The hot tub was not filled which was also a disappointed. While the hotel is nice and new if the staff can not figure out how to truly service guest it will not matter. The location is great for getting around Denver to see things. MoreShow less</t>
+  </si>
+  <si>
+    <t>After having traveled since 4am with my three small children we were disappointed that we had to wait over an hour past our check in time in the lobby (with a handful of other people) to get our room. The shower had hair in it and had not been cleaned. Gross! We didn't get housekeeping after requesting it. However, they made sure to knock loudly on our door at 7am the day of check out. (Waking our small children). There were missing pieces of tile in the bathroom also. The hot tub was not filled which was also a disappointed. While the hotel is nice and new if the staff can not figure out how to truly service guest it will not matter. The location is great for getting around Denver to see things. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r228004251-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>228004251</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>COuld easily have been a 5!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights and really loved the cleanliness of the hotel, and the friendliness of the staff. The bed was very comfortable, and the room was well-lighted. Almost everything was perfect. I only had one problem, but it was one that really frustrated me. Upon checking in, I specifically asked to not be out near an elevator. Not only are the people loud getting out of elevators, but this hotel's elevator has an annoyingly loud tone whenever the doors open. I was, as you might have guessed, placed in a room, number 414, which is right beside the elevator. I was told I could not be relocated since I had paid on-line through Hotels.com. I am not even really sure what that means! I can tell you what I hear when I am told this by a clerk is, "Since we did not make as much money off of you as we would have liked, the heck with you, learn to live with it!" It is really a shame because if not for this blatant lack of consideration. I was serenaded by the tone of the elevator opening continuously...day and night. Certainly not the end of the world, but without that aggravation, I would have given this place 5 stars! Now, I am fairly certain I would not stay at this particular location again. They should also consider password protecting the wi-fi. Just for the record, the...We stayed here for 5 nights and really loved the cleanliness of the hotel, and the friendliness of the staff. The bed was very comfortable, and the room was well-lighted. Almost everything was perfect. I only had one problem, but it was one that really frustrated me. Upon checking in, I specifically asked to not be out near an elevator. Not only are the people loud getting out of elevators, but this hotel's elevator has an annoyingly loud tone whenever the doors open. I was, as you might have guessed, placed in a room, number 414, which is right beside the elevator. I was told I could not be relocated since I had paid on-line through Hotels.com. I am not even really sure what that means! I can tell you what I hear when I am told this by a clerk is, "Since we did not make as much money off of you as we would have liked, the heck with you, learn to live with it!" It is really a shame because if not for this blatant lack of consideration. I was serenaded by the tone of the elevator opening continuously...day and night. Certainly not the end of the world, but without that aggravation, I would have given this place 5 stars! Now, I am fairly certain I would not stay at this particular location again. They should also consider password protecting the wi-fi. Just for the record, the wi-fi was very fast, but I strongly dislike unsecured connections.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights and really loved the cleanliness of the hotel, and the friendliness of the staff. The bed was very comfortable, and the room was well-lighted. Almost everything was perfect. I only had one problem, but it was one that really frustrated me. Upon checking in, I specifically asked to not be out near an elevator. Not only are the people loud getting out of elevators, but this hotel's elevator has an annoyingly loud tone whenever the doors open. I was, as you might have guessed, placed in a room, number 414, which is right beside the elevator. I was told I could not be relocated since I had paid on-line through Hotels.com. I am not even really sure what that means! I can tell you what I hear when I am told this by a clerk is, "Since we did not make as much money off of you as we would have liked, the heck with you, learn to live with it!" It is really a shame because if not for this blatant lack of consideration. I was serenaded by the tone of the elevator opening continuously...day and night. Certainly not the end of the world, but without that aggravation, I would have given this place 5 stars! Now, I am fairly certain I would not stay at this particular location again. They should also consider password protecting the wi-fi. Just for the record, the...We stayed here for 5 nights and really loved the cleanliness of the hotel, and the friendliness of the staff. The bed was very comfortable, and the room was well-lighted. Almost everything was perfect. I only had one problem, but it was one that really frustrated me. Upon checking in, I specifically asked to not be out near an elevator. Not only are the people loud getting out of elevators, but this hotel's elevator has an annoyingly loud tone whenever the doors open. I was, as you might have guessed, placed in a room, number 414, which is right beside the elevator. I was told I could not be relocated since I had paid on-line through Hotels.com. I am not even really sure what that means! I can tell you what I hear when I am told this by a clerk is, "Since we did not make as much money off of you as we would have liked, the heck with you, learn to live with it!" It is really a shame because if not for this blatant lack of consideration. I was serenaded by the tone of the elevator opening continuously...day and night. Certainly not the end of the world, but without that aggravation, I would have given this place 5 stars! Now, I am fairly certain I would not stay at this particular location again. They should also consider password protecting the wi-fi. Just for the record, the wi-fi was very fast, but I strongly dislike unsecured connections.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r227703731-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>227703731</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Clean, convenient and friendly staff</t>
+  </si>
+  <si>
+    <t>Close to anything you need. Hotel opened less than a year ago and is clean, clean, clean. Loved the shopping across the street. I had a small king room and I was loving the size of the bathroom. The bed was perfect! Oh...and the TV signal was crystal clear. An unusual find these daysMoreShow less</t>
+  </si>
+  <si>
+    <t>Close to anything you need. Hotel opened less than a year ago and is clean, clean, clean. Loved the shopping across the street. I had a small king room and I was loving the size of the bathroom. The bed was perfect! Oh...and the TV signal was crystal clear. An unusual find these daysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r225216902-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>225216902</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>Excellent new hotel</t>
+  </si>
+  <si>
+    <t>We had the 2bedroom 2 bath suite. Very spacious and clean. Staff was very helpful. Stopped in for the happy hour on Tuesday evening. We had to meet friends for dinner. The flat bread pizza was outstanding as was the salad. We almost cancelled dinner to just stay there. The chef shared his recipe. Breakfast was very good and the attendant kept up with the crowd in bringing out fresh food and keeping the area clean. Our first stay at Stay Bridge but not our last. The hotel seems to be on par with upper end hotels. Lauren at the front desk did a great job.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2014</t>
+  </si>
+  <si>
+    <t>We had the 2bedroom 2 bath suite. Very spacious and clean. Staff was very helpful. Stopped in for the happy hour on Tuesday evening. We had to meet friends for dinner. The flat bread pizza was outstanding as was the salad. We almost cancelled dinner to just stay there. The chef shared his recipe. Breakfast was very good and the attendant kept up with the crowd in bringing out fresh food and keeping the area clean. Our first stay at Stay Bridge but not our last. The hotel seems to be on par with upper end hotels. Lauren at the front desk did a great job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r222494010-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>222494010</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Great New Hotel, a Few Kinks to Work Out</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights while on family vacation, using reward points for our stay.  We had a suite (kitchen and living room area with a pull out bed, separate bedroom with king bed, and a bathroom), which was nice and spacious for our family of four.  (It's possible some of the extra space was due to being in a handicapped accessible room as well, though we had no need for accessibility.)  The hotel opened only about a month prior to our stay, so no worries about anything being old or worn.
+Breakfast was good each day, with lots of options, and staff was friendly.  Staybridge has free guest laundry, so that was a nice perk too, as we usually do at least one load during vacation (and in this case, it was a necessity as we had kids that had gotten altitude sickness after we headed to higher ground one day).  The hotel is across the road from a large shopping area, including a Target, and lots of restaurants.  There is a TGI Friday's directly across the street which serves food until 2 am as well.  
+Several (mostly minor) issues with our stay... The pool area was closed on the night we arrived.  We were told it would be open the next day, but in the end, we didn't have the opportunity to swim those nights, so I can't verify if it did, in fact, reopen or not.  The...Stayed here for three nights while on family vacation, using reward points for our stay.  We had a suite (kitchen and living room area with a pull out bed, separate bedroom with king bed, and a bathroom), which was nice and spacious for our family of four.  (It's possible some of the extra space was due to being in a handicapped accessible room as well, though we had no need for accessibility.)  The hotel opened only about a month prior to our stay, so no worries about anything being old or worn.Breakfast was good each day, with lots of options, and staff was friendly.  Staybridge has free guest laundry, so that was a nice perk too, as we usually do at least one load during vacation (and in this case, it was a necessity as we had kids that had gotten altitude sickness after we headed to higher ground one day).  The hotel is across the road from a large shopping area, including a Target, and lots of restaurants.  There is a TGI Friday's directly across the street which serves food until 2 am as well.  Several (mostly minor) issues with our stay... The pool area was closed on the night we arrived.  We were told it would be open the next day, but in the end, we didn't have the opportunity to swim those nights, so I can't verify if it did, in fact, reopen or not.  The faucet in our bathroom sink was hooked up backwards (if you turned it to the right you got hot water, to the left you got cold).  There was a utility panel in our room which was left slightly ajar and couldn't simply be shut by us, as it required a key, apparently.  The closet in the bathroom had some odd, loose wires dangling from the ceiling.  (We did mention the faucet, utility panel, and wires to the front desk, and all had been taken care of when we returned to our room at the end of the day.)  The bathroom door did not have a lock, and was a pocket door with a metal frame that squealed like nails on a chalkboard and slammed really loudly if you didn't close it just right.  The floor in the hallway near our room/the elevator had crackers and Cheetos all over the floor when we arrived, and they were still there the morning we checked out.  We were also given a room with a pullout couch which had a chaise lounge on the end, with the pullout only being a twin.  We asked right away about a room with a double pullout or two queens, as our two kids would be sharing, but they had nothing available for that night.  They offered to switch us for our second and third nights, but our daughter was short enough to fit on the chaise and liked having her own little bed, so we just got some extra bedding instead and stayed where we were. I would stay here again for the spacious rooms, friendly staff, free laundry and breakfast, and close proximity to things.  Just seems like a new place that still has a few hiccups to work out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights while on family vacation, using reward points for our stay.  We had a suite (kitchen and living room area with a pull out bed, separate bedroom with king bed, and a bathroom), which was nice and spacious for our family of four.  (It's possible some of the extra space was due to being in a handicapped accessible room as well, though we had no need for accessibility.)  The hotel opened only about a month prior to our stay, so no worries about anything being old or worn.
+Breakfast was good each day, with lots of options, and staff was friendly.  Staybridge has free guest laundry, so that was a nice perk too, as we usually do at least one load during vacation (and in this case, it was a necessity as we had kids that had gotten altitude sickness after we headed to higher ground one day).  The hotel is across the road from a large shopping area, including a Target, and lots of restaurants.  There is a TGI Friday's directly across the street which serves food until 2 am as well.  
+Several (mostly minor) issues with our stay... The pool area was closed on the night we arrived.  We were told it would be open the next day, but in the end, we didn't have the opportunity to swim those nights, so I can't verify if it did, in fact, reopen or not.  The...Stayed here for three nights while on family vacation, using reward points for our stay.  We had a suite (kitchen and living room area with a pull out bed, separate bedroom with king bed, and a bathroom), which was nice and spacious for our family of four.  (It's possible some of the extra space was due to being in a handicapped accessible room as well, though we had no need for accessibility.)  The hotel opened only about a month prior to our stay, so no worries about anything being old or worn.Breakfast was good each day, with lots of options, and staff was friendly.  Staybridge has free guest laundry, so that was a nice perk too, as we usually do at least one load during vacation (and in this case, it was a necessity as we had kids that had gotten altitude sickness after we headed to higher ground one day).  The hotel is across the road from a large shopping area, including a Target, and lots of restaurants.  There is a TGI Friday's directly across the street which serves food until 2 am as well.  Several (mostly minor) issues with our stay... The pool area was closed on the night we arrived.  We were told it would be open the next day, but in the end, we didn't have the opportunity to swim those nights, so I can't verify if it did, in fact, reopen or not.  The faucet in our bathroom sink was hooked up backwards (if you turned it to the right you got hot water, to the left you got cold).  There was a utility panel in our room which was left slightly ajar and couldn't simply be shut by us, as it required a key, apparently.  The closet in the bathroom had some odd, loose wires dangling from the ceiling.  (We did mention the faucet, utility panel, and wires to the front desk, and all had been taken care of when we returned to our room at the end of the day.)  The bathroom door did not have a lock, and was a pocket door with a metal frame that squealed like nails on a chalkboard and slammed really loudly if you didn't close it just right.  The floor in the hallway near our room/the elevator had crackers and Cheetos all over the floor when we arrived, and they were still there the morning we checked out.  We were also given a room with a pullout couch which had a chaise lounge on the end, with the pullout only being a twin.  We asked right away about a room with a double pullout or two queens, as our two kids would be sharing, but they had nothing available for that night.  They offered to switch us for our second and third nights, but our daughter was short enough to fit on the chaise and liked having her own little bed, so we just got some extra bedding instead and stayed where we were. I would stay here again for the spacious rooms, friendly staff, free laundry and breakfast, and close proximity to things.  Just seems like a new place that still has a few hiccups to work out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r220921698-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>220921698</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>We stayed in your 2 bedroom/2 bath suite and it was perfect! Room was like an apartment and made us feel like we were right at home. The staff was super responsive to all our needs. Great location!! Breakfast and social hour were icing on the cake. We will definitely stay here again!! Other reviewers must have been hired by the competitors. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron M, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in your 2 bedroom/2 bath suite and it was perfect! Room was like an apartment and made us feel like we were right at home. The staff was super responsive to all our needs. Great location!! Breakfast and social hour were icing on the cake. We will definitely stay here again!! Other reviewers must have been hired by the competitors. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r220079133-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>220079133</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Good Location and Nice Stay</t>
+  </si>
+  <si>
+    <t>This hotel is located right across from a shopping center, several restaurants and convenient to the main highway in Denver. It is close to the airport, too. Since it is a new property, the rooms were nice, clean and fairly quiet. I enjoyed sitting outside on the "patio" under a gazebo. There is a small "store" on property for incidentals, as well as snacks and drinks. The breakfast was pretty good (cheese omelets, bacon, fruit, cereals, oatmeal, waffles, etc.) and was replenished fairly quickly when items were gone. I would probably stay here again, although I thought the price for the room was a bit high.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeOperation, Operations Supervisor at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is located right across from a shopping center, several restaurants and convenient to the main highway in Denver. It is close to the airport, too. Since it is a new property, the rooms were nice, clean and fairly quiet. I enjoyed sitting outside on the "patio" under a gazebo. There is a small "store" on property for incidentals, as well as snacks and drinks. The breakfast was pretty good (cheese omelets, bacon, fruit, cereals, oatmeal, waffles, etc.) and was replenished fairly quickly when items were gone. I would probably stay here again, although I thought the price for the room was a bit high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d5924169-r215183093-Staybridge_Suites_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>215183093</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t>Horrible customer service! Broken A/C, broken t.v. in bedroom with nothing reconciled by management. Dirty room..dusty, soap scum, crumbs on kitchen floor. They fraudulently charged my personal card and my corporate card and still have not resolved the issue! No discount for issues..woke up sweating from the heat! Absolutely NOT worth the money..On our coorporate..DO NOT RESERVE list!! EVER!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Denver Stapleton, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Horrible customer service! Broken A/C, broken t.v. in bedroom with nothing reconciled by management. Dirty room..dusty, soap scum, crumbs on kitchen floor. They fraudulently charged my personal card and my corporate card and still have not resolved the issue! No discount for issues..woke up sweating from the heat! Absolutely NOT worth the money..On our coorporate..DO NOT RESERVE list!! EVER!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2406,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2438,4800 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>269</v>
+      </c>
+      <c r="X27" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" t="s">
+        <v>274</v>
+      </c>
+      <c r="K28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28" t="s">
+        <v>276</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>293</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>310</v>
+      </c>
+      <c r="X33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>321</v>
+      </c>
+      <c r="J34" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>325</v>
+      </c>
+      <c r="X34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>329</v>
+      </c>
+      <c r="J35" t="s">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s">
+        <v>332</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>333</v>
+      </c>
+      <c r="X35" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>337</v>
+      </c>
+      <c r="J36" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>341</v>
+      </c>
+      <c r="X36" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="J37" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" t="s">
+        <v>347</v>
+      </c>
+      <c r="L37" t="s">
+        <v>348</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>318</v>
+      </c>
+      <c r="O37" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>349</v>
+      </c>
+      <c r="X37" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>352</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J38" t="s">
+        <v>354</v>
+      </c>
+      <c r="K38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L38" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>357</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>358</v>
+      </c>
+      <c r="X38" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>361</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>362</v>
+      </c>
+      <c r="J39" t="s">
+        <v>363</v>
+      </c>
+      <c r="K39" t="s">
+        <v>364</v>
+      </c>
+      <c r="L39" t="s">
+        <v>365</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>357</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>366</v>
+      </c>
+      <c r="X39" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>370</v>
+      </c>
+      <c r="J40" t="s">
+        <v>371</v>
+      </c>
+      <c r="K40" t="s">
+        <v>372</v>
+      </c>
+      <c r="L40" t="s">
+        <v>373</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>374</v>
+      </c>
+      <c r="X40" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>378</v>
+      </c>
+      <c r="J41" t="s">
+        <v>379</v>
+      </c>
+      <c r="K41" t="s">
+        <v>380</v>
+      </c>
+      <c r="L41" t="s">
+        <v>381</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>382</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>383</v>
+      </c>
+      <c r="X41" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>387</v>
+      </c>
+      <c r="J42" t="s">
+        <v>388</v>
+      </c>
+      <c r="K42" t="s">
+        <v>389</v>
+      </c>
+      <c r="L42" t="s">
+        <v>390</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>382</v>
+      </c>
+      <c r="O42" t="s">
+        <v>391</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>392</v>
+      </c>
+      <c r="X42" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>396</v>
+      </c>
+      <c r="J43" t="s">
+        <v>397</v>
+      </c>
+      <c r="K43" t="s">
+        <v>398</v>
+      </c>
+      <c r="L43" t="s">
+        <v>399</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>400</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>401</v>
+      </c>
+      <c r="X43" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>405</v>
+      </c>
+      <c r="J44" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" t="s">
+        <v>407</v>
+      </c>
+      <c r="L44" t="s">
+        <v>408</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>409</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>410</v>
+      </c>
+      <c r="X44" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>413</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>414</v>
+      </c>
+      <c r="J45" t="s">
+        <v>415</v>
+      </c>
+      <c r="K45" t="s">
+        <v>416</v>
+      </c>
+      <c r="L45" t="s">
+        <v>417</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>418</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>419</v>
+      </c>
+      <c r="X45" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>423</v>
+      </c>
+      <c r="J46" t="s">
+        <v>424</v>
+      </c>
+      <c r="K46" t="s">
+        <v>425</v>
+      </c>
+      <c r="L46" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>409</v>
+      </c>
+      <c r="O46" t="s">
+        <v>112</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>427</v>
+      </c>
+      <c r="X46" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" t="s">
+        <v>432</v>
+      </c>
+      <c r="K47" t="s">
+        <v>433</v>
+      </c>
+      <c r="L47" t="s">
+        <v>434</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>435</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>436</v>
+      </c>
+      <c r="X47" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>439</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" t="s">
+        <v>443</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>435</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>436</v>
+      </c>
+      <c r="X48" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>446</v>
+      </c>
+      <c r="J49" t="s">
+        <v>447</v>
+      </c>
+      <c r="K49" t="s">
+        <v>448</v>
+      </c>
+      <c r="L49" t="s">
+        <v>449</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>450</v>
+      </c>
+      <c r="X49" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>453</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>454</v>
+      </c>
+      <c r="J50" t="s">
+        <v>455</v>
+      </c>
+      <c r="K50" t="s">
+        <v>456</v>
+      </c>
+      <c r="L50" t="s">
+        <v>457</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>458</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>459</v>
+      </c>
+      <c r="X50" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>462</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>463</v>
+      </c>
+      <c r="J51" t="s">
+        <v>464</v>
+      </c>
+      <c r="K51" t="s">
+        <v>465</v>
+      </c>
+      <c r="L51" t="s">
+        <v>466</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>418</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>467</v>
+      </c>
+      <c r="X51" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>470</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>471</v>
+      </c>
+      <c r="J52" t="s">
+        <v>472</v>
+      </c>
+      <c r="K52" t="s">
+        <v>473</v>
+      </c>
+      <c r="L52" t="s">
+        <v>474</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>475</v>
+      </c>
+      <c r="O52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>467</v>
+      </c>
+      <c r="X52" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>477</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>478</v>
+      </c>
+      <c r="J53" t="s">
+        <v>479</v>
+      </c>
+      <c r="K53" t="s">
+        <v>480</v>
+      </c>
+      <c r="L53" t="s">
+        <v>481</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>418</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>482</v>
+      </c>
+      <c r="X53" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>486</v>
+      </c>
+      <c r="J54" t="s">
+        <v>487</v>
+      </c>
+      <c r="K54" t="s">
+        <v>488</v>
+      </c>
+      <c r="L54" t="s">
+        <v>489</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>490</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>491</v>
+      </c>
+      <c r="X54" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>494</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>495</v>
+      </c>
+      <c r="J55" t="s">
+        <v>496</v>
+      </c>
+      <c r="K55" t="s">
+        <v>497</v>
+      </c>
+      <c r="L55" t="s">
+        <v>498</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>418</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>491</v>
+      </c>
+      <c r="X55" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>500</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>501</v>
+      </c>
+      <c r="J56" t="s">
+        <v>502</v>
+      </c>
+      <c r="K56" t="s">
+        <v>503</v>
+      </c>
+      <c r="L56" t="s">
+        <v>504</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>505</v>
+      </c>
+      <c r="O56" t="s">
+        <v>93</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>506</v>
+      </c>
+      <c r="X56" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>509</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>510</v>
+      </c>
+      <c r="J57" t="s">
+        <v>511</v>
+      </c>
+      <c r="K57" t="s">
+        <v>512</v>
+      </c>
+      <c r="L57" t="s">
+        <v>513</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>514</v>
+      </c>
+      <c r="X57" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>517</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>518</v>
+      </c>
+      <c r="J58" t="s">
+        <v>519</v>
+      </c>
+      <c r="K58" t="s">
+        <v>520</v>
+      </c>
+      <c r="L58" t="s">
+        <v>521</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>522</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>523</v>
+      </c>
+      <c r="X58" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>526</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>527</v>
+      </c>
+      <c r="J59" t="s">
+        <v>528</v>
+      </c>
+      <c r="K59" t="s">
+        <v>529</v>
+      </c>
+      <c r="L59" t="s">
+        <v>530</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>531</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>532</v>
+      </c>
+      <c r="X59" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>535</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>536</v>
+      </c>
+      <c r="J60" t="s">
+        <v>537</v>
+      </c>
+      <c r="K60" t="s">
+        <v>538</v>
+      </c>
+      <c r="L60" t="s">
+        <v>539</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>540</v>
+      </c>
+      <c r="O60" t="s">
+        <v>391</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>541</v>
+      </c>
+      <c r="X60" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>544</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>545</v>
+      </c>
+      <c r="J61" t="s">
+        <v>546</v>
+      </c>
+      <c r="K61" t="s">
+        <v>547</v>
+      </c>
+      <c r="L61" t="s">
+        <v>548</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>549</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>550</v>
+      </c>
+      <c r="X61" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>553</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J62" t="s">
+        <v>555</v>
+      </c>
+      <c r="K62" t="s">
+        <v>556</v>
+      </c>
+      <c r="L62" t="s">
+        <v>557</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>558</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>559</v>
+      </c>
+      <c r="X62" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>562</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>563</v>
+      </c>
+      <c r="J63" t="s">
+        <v>564</v>
+      </c>
+      <c r="K63" t="s">
+        <v>565</v>
+      </c>
+      <c r="L63" t="s">
+        <v>566</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>567</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>568</v>
+      </c>
+      <c r="X63" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>571</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>572</v>
+      </c>
+      <c r="J64" t="s">
+        <v>573</v>
+      </c>
+      <c r="K64" t="s">
+        <v>574</v>
+      </c>
+      <c r="L64" t="s">
+        <v>575</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>576</v>
+      </c>
+      <c r="X64" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>579</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>580</v>
+      </c>
+      <c r="J65" t="s">
+        <v>581</v>
+      </c>
+      <c r="K65" t="s">
+        <v>582</v>
+      </c>
+      <c r="L65" t="s">
+        <v>583</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>522</v>
+      </c>
+      <c r="O65" t="s">
+        <v>391</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>584</v>
+      </c>
+      <c r="X65" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>587</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>588</v>
+      </c>
+      <c r="J66" t="s">
+        <v>589</v>
+      </c>
+      <c r="K66" t="s">
+        <v>590</v>
+      </c>
+      <c r="L66" t="s">
+        <v>591</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>592</v>
+      </c>
+      <c r="O66" t="s">
+        <v>70</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>584</v>
+      </c>
+      <c r="X66" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>594</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>595</v>
+      </c>
+      <c r="J67" t="s">
+        <v>596</v>
+      </c>
+      <c r="K67" t="s">
+        <v>597</v>
+      </c>
+      <c r="L67" t="s">
+        <v>598</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>584</v>
+      </c>
+      <c r="X67" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>600</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>601</v>
+      </c>
+      <c r="J68" t="s">
+        <v>602</v>
+      </c>
+      <c r="K68" t="s">
+        <v>603</v>
+      </c>
+      <c r="L68" t="s">
+        <v>604</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>522</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>605</v>
+      </c>
+      <c r="X68" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>608</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>609</v>
+      </c>
+      <c r="J69" t="s">
+        <v>610</v>
+      </c>
+      <c r="K69" t="s">
+        <v>611</v>
+      </c>
+      <c r="L69" t="s">
+        <v>612</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>522</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>605</v>
+      </c>
+      <c r="X69" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>614</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>615</v>
+      </c>
+      <c r="J70" t="s">
+        <v>616</v>
+      </c>
+      <c r="K70" t="s">
+        <v>617</v>
+      </c>
+      <c r="L70" t="s">
+        <v>618</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>592</v>
+      </c>
+      <c r="O70" t="s">
+        <v>391</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>619</v>
+      </c>
+      <c r="X70" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>622</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>623</v>
+      </c>
+      <c r="J71" t="s">
+        <v>624</v>
+      </c>
+      <c r="K71" t="s">
+        <v>625</v>
+      </c>
+      <c r="L71" t="s">
+        <v>626</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>592</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>627</v>
+      </c>
+      <c r="X71" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>630</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>631</v>
+      </c>
+      <c r="J72" t="s">
+        <v>632</v>
+      </c>
+      <c r="K72" t="s">
+        <v>633</v>
+      </c>
+      <c r="L72" t="s">
+        <v>634</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>635</v>
+      </c>
+      <c r="X72" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>638</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>639</v>
+      </c>
+      <c r="J73" t="s">
+        <v>640</v>
+      </c>
+      <c r="K73" t="s">
+        <v>641</v>
+      </c>
+      <c r="L73" t="s">
+        <v>642</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>643</v>
+      </c>
+      <c r="O73" t="s">
+        <v>112</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>644</v>
+      </c>
+      <c r="X73" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63126</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>647</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>648</v>
+      </c>
+      <c r="J74" t="s">
+        <v>649</v>
+      </c>
+      <c r="K74" t="s">
+        <v>650</v>
+      </c>
+      <c r="L74" t="s">
+        <v>651</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>643</v>
+      </c>
+      <c r="O74" t="s">
+        <v>391</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>652</v>
+      </c>
+      <c r="X74" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
